--- a/Documentation/WTF comparison Toronto.xlsx
+++ b/Documentation/WTF comparison Toronto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaia\Documents\GitHub\RF_Balance_Profound\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F2E82B-F421-41C3-BEC6-F8343CEFDE24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7993C954-EEAC-468E-AA47-BE12AE7E91DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="4290" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="68">
   <si>
     <t>UA</t>
   </si>
@@ -207,12 +207,6 @@
     <t>Mean (Python)</t>
   </si>
   <si>
-    <t>Average error</t>
-  </si>
-  <si>
-    <t>Systematic error</t>
-  </si>
-  <si>
     <t>LF.Pf (max) (W)</t>
   </si>
   <si>
@@ -231,40 +225,10 @@
     <t>Measurement</t>
   </si>
   <si>
-    <t>New WTF2</t>
-  </si>
-  <si>
-    <t>OLD WTF3</t>
-  </si>
-  <si>
     <t>diff (W)</t>
   </si>
   <si>
     <t>Stdev.s</t>
-  </si>
-  <si>
-    <t>Mean (WTF2)</t>
-  </si>
-  <si>
-    <t>Mean (WTF3)</t>
-  </si>
-  <si>
-    <t>STDev (WTF2)</t>
-  </si>
-  <si>
-    <t>STDev (WTF3)</t>
-  </si>
-  <si>
-    <t>Systematic Error (Labview/Python)</t>
-  </si>
-  <si>
-    <t>Average Error (Labview/Python)</t>
-  </si>
-  <si>
-    <t>Systematic Error (WTF2/WTF3)</t>
-  </si>
-  <si>
-    <t>Average Error (WTF2/WTF3)</t>
   </si>
   <si>
     <t>+</t>
@@ -274,6 +238,45 @@
   </si>
   <si>
     <t>Better/Worse</t>
+  </si>
+  <si>
+    <t>STDev of Differences</t>
+  </si>
+  <si>
+    <t>Difference between Means</t>
+  </si>
+  <si>
+    <t>Difference Between Means (Labview/Python)</t>
+  </si>
+  <si>
+    <t>STDev of Differences (Labview/Python)</t>
+  </si>
+  <si>
+    <t>Difference Between Means</t>
+  </si>
+  <si>
+    <t>Retest</t>
+  </si>
+  <si>
+    <t>Orignal Test</t>
+  </si>
+  <si>
+    <t>Difference Between Means (Original/Retest)</t>
+  </si>
+  <si>
+    <t>STDev (Retest)</t>
+  </si>
+  <si>
+    <t>STDev (Original)</t>
+  </si>
+  <si>
+    <t>Mean (Retest)</t>
+  </si>
+  <si>
+    <t>Mean (Original)</t>
+  </si>
+  <si>
+    <t>STDev of Differences (Original/Retest)</t>
   </si>
 </sst>
 </file>
@@ -390,9 +393,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -415,6 +415,9 @@
     </xf>
     <xf numFmtId="2" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="4" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -534,32 +537,32 @@
     <tableColumn id="7" xr3:uid="{270AFBE7-9F4E-43C6-8E25-5A5465ABF73D}" name="STDev (Python)" dataDxfId="10">
       <calculatedColumnFormula>G60</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{5E46F0B7-2FCA-46C1-9937-F9748E199098}" name="Systematic error" dataDxfId="9">
+    <tableColumn id="4" xr3:uid="{5E46F0B7-2FCA-46C1-9937-F9748E199098}" name="Difference Between Means" dataDxfId="9">
       <calculatedColumnFormula>ABS(B65-C65)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{DF91EFE2-7F04-4AAE-91B5-F5C4B459D90E}" name="Average error" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{DF91EFE2-7F04-4AAE-91B5-F5C4B459D90E}" name="STDev of Differences" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D840E7C0-2D6E-4D88-8FFA-7B2F66E844DE}" name="Table14" displayName="Table14" ref="A33:G40" totalsRowShown="0" headerRowDxfId="7">
-  <autoFilter ref="A33:G40" xr:uid="{D840E7C0-2D6E-4D88-8FFA-7B2F66E844DE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D840E7C0-2D6E-4D88-8FFA-7B2F66E844DE}" name="Table14" displayName="Table14" ref="A32:G39" totalsRowShown="0" headerRowDxfId="7">
+  <autoFilter ref="A32:G39" xr:uid="{D840E7C0-2D6E-4D88-8FFA-7B2F66E844DE}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{5356BB98-4B23-45C1-9E28-1DF9C9CBCE07}" name="Measurement" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{828446D9-31F5-4D16-A4C3-175AC8190C42}" name="Mean (WTF2)" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{C13A80E7-449E-4C10-AC07-48ACC26C66CE}" name="Mean (WTF3)" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{667A4A57-ACE7-4097-B0E8-0FC64F035BC8}" name="STDev (WTF2)" dataDxfId="3">
-      <calculatedColumnFormula>F29</calculatedColumnFormula>
+    <tableColumn id="2" xr3:uid="{828446D9-31F5-4D16-A4C3-175AC8190C42}" name="Mean (Original)" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{C13A80E7-449E-4C10-AC07-48ACC26C66CE}" name="Mean (Retest)" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{667A4A57-ACE7-4097-B0E8-0FC64F035BC8}" name="STDev (Retest)" dataDxfId="3">
+      <calculatedColumnFormula>F28</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{1C1E148F-4D7E-4354-B55A-500A95D31408}" name="STDev (WTF3)" dataDxfId="2">
-      <calculatedColumnFormula>G29</calculatedColumnFormula>
+    <tableColumn id="7" xr3:uid="{1C1E148F-4D7E-4354-B55A-500A95D31408}" name="STDev (Original)" dataDxfId="2">
+      <calculatedColumnFormula>G28</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{D9EF894A-D543-4103-9035-7ACA2B687467}" name="Systematic error" dataDxfId="1">
-      <calculatedColumnFormula>ABS(B34-C34)</calculatedColumnFormula>
+    <tableColumn id="4" xr3:uid="{D9EF894A-D543-4103-9035-7ACA2B687467}" name="Difference between Means" dataDxfId="0">
+      <calculatedColumnFormula>B33-C33</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{427684B1-7D7D-41CA-A334-93DE120A5D23}" name="Average error" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{427684B1-7D7D-41CA-A334-93DE120A5D23}" name="STDev of Differences" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -872,8 +875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC88"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="P62" sqref="P62"/>
+    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -883,8 +886,8 @@
     <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.5703125" customWidth="1"/>
     <col min="26" max="26" width="17.5703125" bestFit="1" customWidth="1"/>
@@ -953,7 +956,7 @@
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="22" t="s">
         <v>10</v>
       </c>
       <c r="B2" t="s">
@@ -966,8 +969,8 @@
         <v>-90</v>
       </c>
       <c r="E2">
-        <f>ABS(C2-D2)</f>
-        <v>2.5999999999999943</v>
+        <f>(C2-D2)</f>
+        <v>-2.5999999999999943</v>
       </c>
       <c r="F2">
         <v>64</v>
@@ -976,7 +979,7 @@
         <v>62</v>
       </c>
       <c r="H2">
-        <f>ABS(F2-G2)</f>
+        <f>(F2-G2)</f>
         <v>2</v>
       </c>
       <c r="I2">
@@ -986,7 +989,7 @@
         <v>10</v>
       </c>
       <c r="K2">
-        <f>ABS(I2-J2)</f>
+        <f>(I2-J2)</f>
         <v>1.1999999999999993</v>
       </c>
       <c r="L2">
@@ -996,8 +999,8 @@
         <v>7.2</v>
       </c>
       <c r="N2">
-        <f>ABS(L2-M2)</f>
-        <v>0.10000000000000053</v>
+        <f>(L2-M2)</f>
+        <v>-0.10000000000000053</v>
       </c>
       <c r="O2">
         <v>32</v>
@@ -1006,8 +1009,8 @@
         <v>32.1</v>
       </c>
       <c r="Q2">
-        <f>ABS(O2-P2)</f>
-        <v>0.10000000000000142</v>
+        <f>(O2-P2)</f>
+        <v>-0.10000000000000142</v>
       </c>
       <c r="R2">
         <v>2.9</v>
@@ -1016,7 +1019,7 @@
         <v>2.4</v>
       </c>
       <c r="T2">
-        <f>ABS(R2-S2)</f>
+        <f>(R2-S2)</f>
         <v>0.5</v>
       </c>
       <c r="U2">
@@ -1026,7 +1029,7 @@
         <v>6.4</v>
       </c>
       <c r="W2">
-        <f>ABS(U2-V2)</f>
+        <f>(U2-V2)</f>
         <v>0</v>
       </c>
       <c r="X2" t="s">
@@ -1037,7 +1040,7 @@
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
+      <c r="A3" s="22"/>
       <c r="B3" t="s">
         <v>13</v>
       </c>
@@ -1048,8 +1051,8 @@
         <v>-90.1</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E45" si="0">ABS(C3-D3)</f>
-        <v>1.7000000000000028</v>
+        <f>(C3-D3)</f>
+        <v>-1.7000000000000028</v>
       </c>
       <c r="F3">
         <v>64</v>
@@ -1058,7 +1061,7 @@
         <v>62.8</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H44" si="1">ABS(F3-G3)</f>
+        <f>(F3-G3)</f>
         <v>1.2000000000000028</v>
       </c>
       <c r="I3">
@@ -1068,7 +1071,7 @@
         <v>5.9</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K44" si="2">ABS(I3-J3)</f>
+        <f>(I3-J3)</f>
         <v>1.2999999999999998</v>
       </c>
       <c r="L3">
@@ -1078,8 +1081,8 @@
         <v>6.8</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N43" si="3">ABS(L3-M3)</f>
-        <v>9.9999999999999645E-2</v>
+        <f>(L3-M3)</f>
+        <v>-9.9999999999999645E-2</v>
       </c>
       <c r="O3">
         <v>31</v>
@@ -1088,7 +1091,7 @@
         <v>28.9</v>
       </c>
       <c r="Q3">
-        <f t="shared" ref="Q3:Q11" si="4">ABS(O3-P3)</f>
+        <f>(O3-P3)</f>
         <v>2.1000000000000014</v>
       </c>
       <c r="R3">
@@ -1098,8 +1101,8 @@
         <v>2.9</v>
       </c>
       <c r="T3">
-        <f t="shared" ref="T3:T11" si="5">ABS(R3-S3)</f>
-        <v>0.19999999999999973</v>
+        <f>(R3-S3)</f>
+        <v>-0.19999999999999973</v>
       </c>
       <c r="U3">
         <v>6.7</v>
@@ -1108,8 +1111,8 @@
         <v>7.1</v>
       </c>
       <c r="W3">
-        <f t="shared" ref="W3:W11" si="6">ABS(U3-V3)</f>
-        <v>0.39999999999999947</v>
+        <f>(U3-V3)</f>
+        <v>-0.39999999999999947</v>
       </c>
       <c r="X3" t="s">
         <v>32</v>
@@ -1119,7 +1122,7 @@
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
+      <c r="A4" s="22"/>
       <c r="B4" t="s">
         <v>14</v>
       </c>
@@ -1130,8 +1133,8 @@
         <v>-90.1</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
-        <v>2.1000000000000085</v>
+        <f>(C4-D4)</f>
+        <v>-2.1000000000000085</v>
       </c>
       <c r="F4">
         <v>73</v>
@@ -1140,7 +1143,7 @@
         <v>71.400000000000006</v>
       </c>
       <c r="H4">
-        <f t="shared" si="1"/>
+        <f>(F4-G4)</f>
         <v>1.5999999999999943</v>
       </c>
       <c r="I4">
@@ -1150,8 +1153,8 @@
         <v>5.9</v>
       </c>
       <c r="K4">
-        <f t="shared" si="2"/>
-        <v>0.60000000000000053</v>
+        <f>(I4-J4)</f>
+        <v>-0.60000000000000053</v>
       </c>
       <c r="L4">
         <v>5.8</v>
@@ -1160,8 +1163,8 @@
         <v>6</v>
       </c>
       <c r="N4">
-        <f t="shared" si="3"/>
-        <v>0.20000000000000018</v>
+        <f>(L4-M4)</f>
+        <v>-0.20000000000000018</v>
       </c>
       <c r="O4">
         <v>29</v>
@@ -1170,7 +1173,7 @@
         <v>28.7</v>
       </c>
       <c r="Q4">
-        <f t="shared" si="4"/>
+        <f>(O4-P4)</f>
         <v>0.30000000000000071</v>
       </c>
       <c r="R4">
@@ -1180,7 +1183,7 @@
         <v>10</v>
       </c>
       <c r="T4">
-        <f t="shared" si="5"/>
+        <f>(R4-S4)</f>
         <v>0.80000000000000071</v>
       </c>
       <c r="U4">
@@ -1190,7 +1193,7 @@
         <v>7.7</v>
       </c>
       <c r="W4">
-        <f t="shared" si="6"/>
+        <f>(U4-V4)</f>
         <v>0</v>
       </c>
       <c r="X4" t="s">
@@ -1201,7 +1204,7 @@
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
+      <c r="A5" s="22"/>
       <c r="B5" t="s">
         <v>15</v>
       </c>
@@ -1212,8 +1215,8 @@
         <v>-90.1</v>
       </c>
       <c r="E5">
-        <f t="shared" si="0"/>
-        <v>2.1000000000000085</v>
+        <f>(C5-D5)</f>
+        <v>-2.1000000000000085</v>
       </c>
       <c r="F5">
         <v>74</v>
@@ -1222,7 +1225,7 @@
         <v>71.099999999999994</v>
       </c>
       <c r="H5">
-        <f t="shared" si="1"/>
+        <f>(F5-G5)</f>
         <v>2.9000000000000057</v>
       </c>
       <c r="I5">
@@ -1232,8 +1235,8 @@
         <v>8.4</v>
       </c>
       <c r="K5">
-        <f t="shared" si="2"/>
-        <v>0.90000000000000036</v>
+        <f>(I5-J5)</f>
+        <v>-0.90000000000000036</v>
       </c>
       <c r="L5">
         <v>5.8</v>
@@ -1242,8 +1245,8 @@
         <v>6.1</v>
       </c>
       <c r="N5">
-        <f t="shared" si="3"/>
-        <v>0.29999999999999982</v>
+        <f>(L5-M5)</f>
+        <v>-0.29999999999999982</v>
       </c>
       <c r="O5">
         <v>33</v>
@@ -1252,8 +1255,8 @@
         <v>34.5</v>
       </c>
       <c r="Q5">
-        <f t="shared" si="4"/>
-        <v>1.5</v>
+        <f>(O5-P5)</f>
+        <v>-1.5</v>
       </c>
       <c r="R5">
         <v>4</v>
@@ -1262,7 +1265,7 @@
         <v>3.6</v>
       </c>
       <c r="T5">
-        <f t="shared" si="5"/>
+        <f>(R5-S5)</f>
         <v>0.39999999999999991</v>
       </c>
       <c r="U5">
@@ -1272,7 +1275,7 @@
         <v>6</v>
       </c>
       <c r="W5">
-        <f t="shared" si="6"/>
+        <f>(U5-V5)</f>
         <v>0.29999999999999982</v>
       </c>
       <c r="X5" t="s">
@@ -1283,7 +1286,7 @@
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
+      <c r="A6" s="22"/>
       <c r="B6" t="s">
         <v>16</v>
       </c>
@@ -1294,8 +1297,8 @@
         <v>-90.7</v>
       </c>
       <c r="E6">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
+        <f>(C6-D6)</f>
+        <v>-1.5</v>
       </c>
       <c r="F6">
         <v>74</v>
@@ -1304,7 +1307,7 @@
         <v>71.3</v>
       </c>
       <c r="H6">
-        <f t="shared" si="1"/>
+        <f>(F6-G6)</f>
         <v>2.7000000000000028</v>
       </c>
       <c r="I6">
@@ -1314,8 +1317,8 @@
         <v>10.1</v>
       </c>
       <c r="K6">
-        <f t="shared" si="2"/>
-        <v>0.69999999999999929</v>
+        <f>(I6-J6)</f>
+        <v>-0.69999999999999929</v>
       </c>
       <c r="L6">
         <v>6</v>
@@ -1324,8 +1327,8 @@
         <v>6.2</v>
       </c>
       <c r="N6">
-        <f t="shared" si="3"/>
-        <v>0.20000000000000018</v>
+        <f>(L6-M6)</f>
+        <v>-0.20000000000000018</v>
       </c>
       <c r="O6">
         <v>42</v>
@@ -1334,8 +1337,8 @@
         <v>42.8</v>
       </c>
       <c r="Q6">
-        <f t="shared" si="4"/>
-        <v>0.79999999999999716</v>
+        <f>(O6-P6)</f>
+        <v>-0.79999999999999716</v>
       </c>
       <c r="R6">
         <v>0.3</v>
@@ -1344,8 +1347,8 @@
         <v>0.5</v>
       </c>
       <c r="T6">
-        <f t="shared" si="5"/>
-        <v>0.2</v>
+        <f>(R6-S6)</f>
+        <v>-0.2</v>
       </c>
       <c r="U6">
         <v>4.8</v>
@@ -1354,7 +1357,7 @@
         <v>4.7</v>
       </c>
       <c r="W6">
-        <f t="shared" si="6"/>
+        <f>(U6-V6)</f>
         <v>9.9999999999999645E-2</v>
       </c>
       <c r="X6" t="s">
@@ -1365,7 +1368,7 @@
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
+      <c r="A7" s="22"/>
       <c r="B7" t="s">
         <v>17</v>
       </c>
@@ -1376,8 +1379,8 @@
         <v>-90.1</v>
       </c>
       <c r="E7">
-        <f t="shared" si="0"/>
-        <v>2.1000000000000085</v>
+        <f>(C7-D7)</f>
+        <v>-2.1000000000000085</v>
       </c>
       <c r="F7">
         <v>75</v>
@@ -1386,7 +1389,7 @@
         <v>70.400000000000006</v>
       </c>
       <c r="H7">
-        <f t="shared" si="1"/>
+        <f>(F7-G7)</f>
         <v>4.5999999999999943</v>
       </c>
       <c r="I7">
@@ -1396,7 +1399,7 @@
         <v>10.1</v>
       </c>
       <c r="K7">
-        <f t="shared" si="2"/>
+        <f>(I7-J7)</f>
         <v>0</v>
       </c>
       <c r="L7">
@@ -1406,8 +1409,8 @@
         <v>6.3</v>
       </c>
       <c r="N7">
-        <f t="shared" si="3"/>
-        <v>0.29999999999999982</v>
+        <f>(L7-M7)</f>
+        <v>-0.29999999999999982</v>
       </c>
       <c r="O7">
         <v>44</v>
@@ -1416,7 +1419,7 @@
         <v>42.2</v>
       </c>
       <c r="Q7">
-        <f t="shared" si="4"/>
+        <f>(O7-P7)</f>
         <v>1.7999999999999972</v>
       </c>
       <c r="R7">
@@ -1426,7 +1429,7 @@
         <v>1.5</v>
       </c>
       <c r="T7">
-        <f t="shared" si="5"/>
+        <f>(R7-S7)</f>
         <v>0.30000000000000004</v>
       </c>
       <c r="U7">
@@ -1436,8 +1439,8 @@
         <v>4.8</v>
       </c>
       <c r="W7">
-        <f t="shared" si="6"/>
-        <v>9.9999999999999645E-2</v>
+        <f>(U7-V7)</f>
+        <v>-9.9999999999999645E-2</v>
       </c>
       <c r="X7" t="s">
         <v>32</v>
@@ -1447,7 +1450,7 @@
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
+      <c r="A8" s="22"/>
       <c r="B8" t="s">
         <v>18</v>
       </c>
@@ -1458,8 +1461,8 @@
         <v>-90.1</v>
       </c>
       <c r="E8">
-        <f t="shared" si="0"/>
-        <v>2.1000000000000085</v>
+        <f>(C8-D8)</f>
+        <v>-2.1000000000000085</v>
       </c>
       <c r="F8">
         <v>75</v>
@@ -1468,7 +1471,7 @@
         <v>70.099999999999994</v>
       </c>
       <c r="H8">
-        <f t="shared" si="1"/>
+        <f>(F8-G8)</f>
         <v>4.9000000000000057</v>
       </c>
       <c r="I8">
@@ -1478,7 +1481,7 @@
         <v>22.3</v>
       </c>
       <c r="K8">
-        <f t="shared" si="2"/>
+        <f>(I8-J8)</f>
         <v>3</v>
       </c>
       <c r="L8">
@@ -1488,8 +1491,8 @@
         <v>7.3</v>
       </c>
       <c r="N8">
-        <f t="shared" si="3"/>
-        <v>0.20000000000000018</v>
+        <f>(L8-M8)</f>
+        <v>-0.20000000000000018</v>
       </c>
       <c r="O8">
         <v>42</v>
@@ -1498,7 +1501,7 @@
         <v>39.4</v>
       </c>
       <c r="Q8">
-        <f t="shared" si="4"/>
+        <f>(O8-P8)</f>
         <v>2.6000000000000014</v>
       </c>
       <c r="R8">
@@ -1508,8 +1511,8 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="T8">
-        <f t="shared" si="5"/>
-        <v>0.20000000000000018</v>
+        <f>(R8-S8)</f>
+        <v>-0.20000000000000018</v>
       </c>
       <c r="U8">
         <v>5</v>
@@ -1518,8 +1521,8 @@
         <v>5.3</v>
       </c>
       <c r="W8">
-        <f t="shared" si="6"/>
-        <v>0.29999999999999982</v>
+        <f>(U8-V8)</f>
+        <v>-0.29999999999999982</v>
       </c>
       <c r="X8" t="s">
         <v>32</v>
@@ -1529,7 +1532,7 @@
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
+      <c r="A9" s="22"/>
       <c r="B9" t="s">
         <v>19</v>
       </c>
@@ -1540,8 +1543,8 @@
         <v>-90.7</v>
       </c>
       <c r="E9">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
+        <f>(C9-D9)</f>
+        <v>-1.5</v>
       </c>
       <c r="F9">
         <v>75</v>
@@ -1550,7 +1553,7 @@
         <v>72.900000000000006</v>
       </c>
       <c r="H9">
-        <f t="shared" si="1"/>
+        <f>(F9-G9)</f>
         <v>2.0999999999999943</v>
       </c>
       <c r="I9">
@@ -1560,8 +1563,8 @@
         <v>15.6</v>
       </c>
       <c r="K9">
-        <f t="shared" si="2"/>
-        <v>1.7999999999999989</v>
+        <f>(I9-J9)</f>
+        <v>-1.7999999999999989</v>
       </c>
       <c r="L9">
         <v>6.2</v>
@@ -1570,8 +1573,8 @@
         <v>6.5</v>
       </c>
       <c r="N9">
-        <f t="shared" si="3"/>
-        <v>0.29999999999999982</v>
+        <f>(L9-M9)</f>
+        <v>-0.29999999999999982</v>
       </c>
       <c r="O9">
         <v>44</v>
@@ -1580,7 +1583,7 @@
         <v>43</v>
       </c>
       <c r="Q9">
-        <f t="shared" si="4"/>
+        <f>(O9-P9)</f>
         <v>1</v>
       </c>
       <c r="R9">
@@ -1590,8 +1593,8 @@
         <v>5.8</v>
       </c>
       <c r="T9">
-        <f t="shared" si="5"/>
-        <v>0.20000000000000018</v>
+        <f>(R9-S9)</f>
+        <v>-0.20000000000000018</v>
       </c>
       <c r="U9">
         <v>4.8</v>
@@ -1600,8 +1603,8 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="W9">
-        <f t="shared" si="6"/>
-        <v>0.10000000000000053</v>
+        <f>(U9-V9)</f>
+        <v>-0.10000000000000053</v>
       </c>
       <c r="X9" t="s">
         <v>32</v>
@@ -1611,7 +1614,7 @@
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
+      <c r="A10" s="22"/>
       <c r="B10" t="s">
         <v>20</v>
       </c>
@@ -1622,8 +1625,8 @@
         <v>-90.7</v>
       </c>
       <c r="E10">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
+        <f>(C10-D10)</f>
+        <v>-1.5</v>
       </c>
       <c r="F10">
         <v>76</v>
@@ -1632,7 +1635,7 @@
         <v>73.5</v>
       </c>
       <c r="H10">
-        <f t="shared" si="1"/>
+        <f>(F10-G10)</f>
         <v>2.5</v>
       </c>
       <c r="I10">
@@ -1642,7 +1645,7 @@
         <v>9</v>
       </c>
       <c r="K10">
-        <f t="shared" si="2"/>
+        <f>(I10-J10)</f>
         <v>1.9000000000000004</v>
       </c>
       <c r="L10">
@@ -1652,8 +1655,8 @@
         <v>6</v>
       </c>
       <c r="N10">
-        <f t="shared" si="3"/>
-        <v>9.9999999999999645E-2</v>
+        <f>(L10-M10)</f>
+        <v>-9.9999999999999645E-2</v>
       </c>
       <c r="O10">
         <v>42</v>
@@ -1662,7 +1665,7 @@
         <v>40.4</v>
       </c>
       <c r="Q10">
-        <f t="shared" si="4"/>
+        <f>(O10-P10)</f>
         <v>1.6000000000000014</v>
       </c>
       <c r="R10">
@@ -1672,7 +1675,7 @@
         <v>7.2</v>
       </c>
       <c r="T10">
-        <f t="shared" si="5"/>
+        <f>(R10-S10)</f>
         <v>9.9999999999999645E-2</v>
       </c>
       <c r="U10">
@@ -1682,8 +1685,8 @@
         <v>5.3</v>
       </c>
       <c r="W10">
-        <f t="shared" si="6"/>
-        <v>9.9999999999999645E-2</v>
+        <f>(U10-V10)</f>
+        <v>-9.9999999999999645E-2</v>
       </c>
       <c r="X10" t="s">
         <v>32</v>
@@ -1693,7 +1696,7 @@
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
+      <c r="A11" s="22"/>
       <c r="B11" t="s">
         <v>21</v>
       </c>
@@ -1704,8 +1707,8 @@
         <v>-90</v>
       </c>
       <c r="E11">
-        <f t="shared" si="0"/>
-        <v>2.2000000000000028</v>
+        <f>(C11-D11)</f>
+        <v>-2.2000000000000028</v>
       </c>
       <c r="F11">
         <v>74</v>
@@ -1714,7 +1717,7 @@
         <v>72</v>
       </c>
       <c r="H11">
-        <f t="shared" si="1"/>
+        <f>(F11-G11)</f>
         <v>2</v>
       </c>
       <c r="I11">
@@ -1724,7 +1727,7 @@
         <v>18.899999999999999</v>
       </c>
       <c r="K11">
-        <f t="shared" si="2"/>
+        <f>(I11-J11)</f>
         <v>1.1000000000000014</v>
       </c>
       <c r="L11">
@@ -1734,8 +1737,8 @@
         <v>6.9</v>
       </c>
       <c r="N11">
-        <f t="shared" si="3"/>
-        <v>0.20000000000000018</v>
+        <f>(L11-M11)</f>
+        <v>-0.20000000000000018</v>
       </c>
       <c r="O11">
         <v>35</v>
@@ -1744,7 +1747,7 @@
         <v>34.9</v>
       </c>
       <c r="Q11">
-        <f t="shared" si="4"/>
+        <f>(O11-P11)</f>
         <v>0.10000000000000142</v>
       </c>
       <c r="R11">
@@ -1754,8 +1757,8 @@
         <v>13.1</v>
       </c>
       <c r="T11">
-        <f t="shared" si="5"/>
-        <v>0.40000000000000036</v>
+        <f>(R11-S11)</f>
+        <v>-0.40000000000000036</v>
       </c>
       <c r="U11">
         <v>6.6</v>
@@ -1764,7 +1767,7 @@
         <v>6.6</v>
       </c>
       <c r="W11">
-        <f t="shared" si="6"/>
+        <f>(U11-V11)</f>
         <v>0</v>
       </c>
       <c r="X11" t="s">
@@ -1775,7 +1778,7 @@
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
+      <c r="A12" s="22"/>
       <c r="B12" t="s">
         <v>22</v>
       </c>
@@ -1785,10 +1788,6 @@
       <c r="D12">
         <v>-90.3</v>
       </c>
-      <c r="E12">
-        <f t="shared" si="0"/>
-        <v>1.9000000000000057</v>
-      </c>
       <c r="X12" t="s">
         <v>32</v>
       </c>
@@ -1797,7 +1796,7 @@
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="22" t="s">
         <v>23</v>
       </c>
       <c r="B13" t="s">
@@ -1810,7 +1809,7 @@
         <v>-87.7</v>
       </c>
       <c r="E13">
-        <f t="shared" si="0"/>
+        <f>(C13-D13)</f>
         <v>1.5</v>
       </c>
       <c r="F13">
@@ -1820,8 +1819,8 @@
         <v>67.7</v>
       </c>
       <c r="H13">
-        <f t="shared" si="1"/>
-        <v>10.700000000000003</v>
+        <f>(F13-G13)</f>
+        <v>-10.700000000000003</v>
       </c>
       <c r="I13">
         <v>0.2</v>
@@ -1830,8 +1829,8 @@
         <v>3.1</v>
       </c>
       <c r="K13">
-        <f t="shared" si="2"/>
-        <v>2.9</v>
+        <f>(I13-J13)</f>
+        <v>-2.9</v>
       </c>
       <c r="L13">
         <v>7</v>
@@ -1840,7 +1839,7 @@
         <v>6.1</v>
       </c>
       <c r="N13">
-        <f t="shared" si="3"/>
+        <f>(L13-M13)</f>
         <v>0.90000000000000036</v>
       </c>
       <c r="O13">
@@ -1850,7 +1849,7 @@
         <v>41.1</v>
       </c>
       <c r="Q13">
-        <f>ABS(O13-P13)</f>
+        <f>(O13-P13)</f>
         <v>0.89999999999999858</v>
       </c>
       <c r="R13">
@@ -1860,7 +1859,7 @@
         <v>6</v>
       </c>
       <c r="T13">
-        <f>ABS(R13-S13)</f>
+        <f>(R13-S13)</f>
         <v>0.5</v>
       </c>
       <c r="U13">
@@ -1870,8 +1869,8 @@
         <v>5.2</v>
       </c>
       <c r="W13">
-        <f>ABS(U13-V13)</f>
-        <v>0.10000000000000053</v>
+        <f>(U13-V13)</f>
+        <v>-0.10000000000000053</v>
       </c>
       <c r="X13" t="s">
         <v>32</v>
@@ -1881,7 +1880,7 @@
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
+      <c r="A14" s="22"/>
       <c r="B14" t="s">
         <v>13</v>
       </c>
@@ -1892,7 +1891,7 @@
         <v>-87.7</v>
       </c>
       <c r="E14">
-        <f t="shared" si="0"/>
+        <f>(C14-D14)</f>
         <v>1.1000000000000085</v>
       </c>
       <c r="F14">
@@ -1902,8 +1901,8 @@
         <v>71.900000000000006</v>
       </c>
       <c r="H14">
-        <f t="shared" si="1"/>
-        <v>10.900000000000006</v>
+        <f>(F14-G14)</f>
+        <v>-10.900000000000006</v>
       </c>
       <c r="I14">
         <v>0.2</v>
@@ -1912,8 +1911,8 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="K14">
-        <f t="shared" si="2"/>
-        <v>4.2</v>
+        <f>(I14-J14)</f>
+        <v>-4.2</v>
       </c>
       <c r="L14">
         <v>6.5</v>
@@ -1922,7 +1921,7 @@
         <v>5.8</v>
       </c>
       <c r="N14">
-        <f t="shared" si="3"/>
+        <f>(L14-M14)</f>
         <v>0.70000000000000018</v>
       </c>
       <c r="O14">
@@ -1932,7 +1931,7 @@
         <v>39.799999999999997</v>
       </c>
       <c r="Q14">
-        <f t="shared" ref="Q14:Q22" si="7">ABS(O14-P14)</f>
+        <f>(O14-P14)</f>
         <v>1.2000000000000028</v>
       </c>
       <c r="R14">
@@ -1942,8 +1941,8 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="T14">
-        <f t="shared" ref="T14:T22" si="8">ABS(R14-S14)</f>
-        <v>1.0000000000000004</v>
+        <f>(R14-S14)</f>
+        <v>-1.0000000000000004</v>
       </c>
       <c r="U14">
         <v>5.0999999999999996</v>
@@ -1952,8 +1951,8 @@
         <v>5.3</v>
       </c>
       <c r="W14">
-        <f t="shared" ref="W14:W22" si="9">ABS(U14-V14)</f>
-        <v>0.20000000000000018</v>
+        <f>(U14-V14)</f>
+        <v>-0.20000000000000018</v>
       </c>
       <c r="X14" t="s">
         <v>32</v>
@@ -1963,7 +1962,7 @@
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
+      <c r="A15" s="22"/>
       <c r="B15" t="s">
         <v>14</v>
       </c>
@@ -1974,7 +1973,7 @@
         <v>-87.7</v>
       </c>
       <c r="E15">
-        <f t="shared" si="0"/>
+        <f>(C15-D15)</f>
         <v>1.1000000000000085</v>
       </c>
       <c r="F15">
@@ -1984,8 +1983,8 @@
         <v>70.5</v>
       </c>
       <c r="H15">
-        <f t="shared" si="1"/>
-        <v>5.5</v>
+        <f>(F15-G15)</f>
+        <v>-5.5</v>
       </c>
       <c r="I15">
         <v>0.1</v>
@@ -1994,8 +1993,8 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="K15">
-        <f t="shared" si="2"/>
-        <v>4.3000000000000007</v>
+        <f>(I15-J15)</f>
+        <v>-4.3000000000000007</v>
       </c>
       <c r="L15">
         <v>6.2</v>
@@ -2004,7 +2003,7 @@
         <v>5.9</v>
       </c>
       <c r="N15">
-        <f t="shared" si="3"/>
+        <f>(L15-M15)</f>
         <v>0.29999999999999982</v>
       </c>
       <c r="O15">
@@ -2014,7 +2013,7 @@
         <v>42.8</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="7"/>
+        <f>(O15-P15)</f>
         <v>0.20000000000000284</v>
       </c>
       <c r="R15">
@@ -2024,7 +2023,7 @@
         <v>1.3</v>
       </c>
       <c r="T15">
-        <f t="shared" si="8"/>
+        <f>(R15-S15)</f>
         <v>9.9999999999999867E-2</v>
       </c>
       <c r="U15">
@@ -2034,7 +2033,7 @@
         <v>4.7</v>
       </c>
       <c r="W15">
-        <f t="shared" si="9"/>
+        <f>(U15-V15)</f>
         <v>0</v>
       </c>
       <c r="X15" t="s">
@@ -2045,7 +2044,7 @@
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
+      <c r="A16" s="22"/>
       <c r="B16" t="s">
         <v>15</v>
       </c>
@@ -2056,7 +2055,7 @@
         <v>-87.9</v>
       </c>
       <c r="E16">
-        <f t="shared" si="0"/>
+        <f>(C16-D16)</f>
         <v>1.3000000000000114</v>
       </c>
       <c r="F16">
@@ -2066,8 +2065,8 @@
         <v>67.2</v>
       </c>
       <c r="H16">
-        <f t="shared" si="1"/>
-        <v>9.2000000000000028</v>
+        <f>(F16-G16)</f>
+        <v>-9.2000000000000028</v>
       </c>
       <c r="I16">
         <v>0.1</v>
@@ -2076,8 +2075,8 @@
         <v>1.8</v>
       </c>
       <c r="K16">
-        <f t="shared" si="2"/>
-        <v>1.7</v>
+        <f>(I16-J16)</f>
+        <v>-1.7</v>
       </c>
       <c r="L16">
         <v>6.9</v>
@@ -2086,7 +2085,7 @@
         <v>6.1</v>
       </c>
       <c r="N16">
-        <f t="shared" si="3"/>
+        <f>(L16-M16)</f>
         <v>0.80000000000000071</v>
       </c>
       <c r="O16">
@@ -2096,7 +2095,7 @@
         <v>39.299999999999997</v>
       </c>
       <c r="Q16">
-        <f t="shared" si="7"/>
+        <f>(O16-P16)</f>
         <v>4.7000000000000028</v>
       </c>
       <c r="R16">
@@ -2106,7 +2105,7 @@
         <v>2</v>
       </c>
       <c r="T16">
-        <f t="shared" si="8"/>
+        <f>(R16-S16)</f>
         <v>3.4000000000000004</v>
       </c>
       <c r="U16">
@@ -2116,8 +2115,8 @@
         <v>5.2</v>
       </c>
       <c r="W16">
-        <f t="shared" si="9"/>
-        <v>0.40000000000000036</v>
+        <f>(U16-V16)</f>
+        <v>-0.40000000000000036</v>
       </c>
       <c r="X16" t="s">
         <v>32</v>
@@ -2127,7 +2126,7 @@
       </c>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
+      <c r="A17" s="22"/>
       <c r="B17" t="s">
         <v>16</v>
       </c>
@@ -2138,7 +2137,7 @@
         <v>-87.7</v>
       </c>
       <c r="E17">
-        <f t="shared" si="0"/>
+        <f>(C17-D17)</f>
         <v>1.1000000000000085</v>
       </c>
       <c r="F17">
@@ -2148,8 +2147,8 @@
         <v>59.4</v>
       </c>
       <c r="H17">
-        <f t="shared" si="1"/>
-        <v>2.3999999999999986</v>
+        <f>(F17-G17)</f>
+        <v>-2.3999999999999986</v>
       </c>
       <c r="I17">
         <v>0.7</v>
@@ -2158,7 +2157,7 @@
         <v>0.1</v>
       </c>
       <c r="K17">
-        <f t="shared" si="2"/>
+        <f>(I17-J17)</f>
         <v>0.6</v>
       </c>
       <c r="L17">
@@ -2168,7 +2167,7 @@
         <v>6.7</v>
       </c>
       <c r="N17">
-        <f t="shared" si="3"/>
+        <f>(L17-M17)</f>
         <v>0.39999999999999947</v>
       </c>
       <c r="O17">
@@ -2178,8 +2177,8 @@
         <v>44.3</v>
       </c>
       <c r="Q17">
-        <f t="shared" si="7"/>
-        <v>1.2999999999999972</v>
+        <f>(O17-P17)</f>
+        <v>-1.2999999999999972</v>
       </c>
       <c r="R17">
         <v>2.1</v>
@@ -2188,7 +2187,7 @@
         <v>1.8</v>
       </c>
       <c r="T17">
-        <f t="shared" si="8"/>
+        <f>(R17-S17)</f>
         <v>0.30000000000000004</v>
       </c>
       <c r="U17">
@@ -2198,7 +2197,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="W17">
-        <f t="shared" si="9"/>
+        <f>(U17-V17)</f>
         <v>0.10000000000000053</v>
       </c>
       <c r="X17" t="s">
@@ -2209,7 +2208,7 @@
       </c>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
+      <c r="A18" s="22"/>
       <c r="B18" t="s">
         <v>17</v>
       </c>
@@ -2220,7 +2219,7 @@
         <v>-87.7</v>
       </c>
       <c r="E18">
-        <f t="shared" si="0"/>
+        <f>(C18-D18)</f>
         <v>1.1000000000000085</v>
       </c>
       <c r="F18">
@@ -2230,7 +2229,7 @@
         <v>55.9</v>
       </c>
       <c r="H18">
-        <f t="shared" si="1"/>
+        <f>(F18-G18)</f>
         <v>4.1000000000000014</v>
       </c>
       <c r="I18">
@@ -2240,8 +2239,8 @@
         <v>0.6</v>
       </c>
       <c r="K18">
-        <f t="shared" si="2"/>
-        <v>0.19999999999999996</v>
+        <f>(I18-J18)</f>
+        <v>-0.19999999999999996</v>
       </c>
       <c r="L18">
         <v>6.7</v>
@@ -2250,8 +2249,8 @@
         <v>7.2</v>
       </c>
       <c r="N18">
-        <f t="shared" si="3"/>
-        <v>0.5</v>
+        <f>(L18-M18)</f>
+        <v>-0.5</v>
       </c>
       <c r="O18">
         <v>45</v>
@@ -2260,7 +2259,7 @@
         <v>44.4</v>
       </c>
       <c r="Q18">
-        <f t="shared" si="7"/>
+        <f>(O18-P18)</f>
         <v>0.60000000000000142</v>
       </c>
       <c r="R18">
@@ -2270,8 +2269,8 @@
         <v>1.7</v>
       </c>
       <c r="T18">
-        <f t="shared" si="8"/>
-        <v>0.5</v>
+        <f>(R18-S18)</f>
+        <v>-0.5</v>
       </c>
       <c r="U18">
         <v>4.5</v>
@@ -2280,8 +2279,8 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="W18">
-        <f t="shared" si="9"/>
-        <v>9.9999999999999645E-2</v>
+        <f>(U18-V18)</f>
+        <v>-9.9999999999999645E-2</v>
       </c>
       <c r="X18" t="s">
         <v>32</v>
@@ -2291,7 +2290,7 @@
       </c>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
+      <c r="A19" s="22"/>
       <c r="B19" t="s">
         <v>18</v>
       </c>
@@ -2302,7 +2301,7 @@
         <v>-87.1</v>
       </c>
       <c r="E19">
-        <f t="shared" si="0"/>
+        <f>(C19-D19)</f>
         <v>0.5</v>
       </c>
       <c r="F19">
@@ -2312,7 +2311,7 @@
         <v>57.4</v>
       </c>
       <c r="H19">
-        <f t="shared" si="1"/>
+        <f>(F19-G19)</f>
         <v>0.60000000000000142</v>
       </c>
       <c r="I19">
@@ -2322,7 +2321,7 @@
         <v>0.2</v>
       </c>
       <c r="K19">
-        <f t="shared" si="2"/>
+        <f>(I19-J19)</f>
         <v>0.49999999999999994</v>
       </c>
       <c r="L19">
@@ -2332,7 +2331,7 @@
         <v>7</v>
       </c>
       <c r="N19">
-        <f t="shared" si="3"/>
+        <f>(L19-M19)</f>
         <v>0</v>
       </c>
       <c r="O19">
@@ -2342,7 +2341,7 @@
         <v>42.2</v>
       </c>
       <c r="Q19">
-        <f t="shared" si="7"/>
+        <f>(O19-P19)</f>
         <v>0.79999999999999716</v>
       </c>
       <c r="R19">
@@ -2352,7 +2351,7 @@
         <v>2.6</v>
       </c>
       <c r="T19">
-        <f t="shared" si="8"/>
+        <f>(R19-S19)</f>
         <v>0.69999999999999973</v>
       </c>
       <c r="U19">
@@ -2362,8 +2361,8 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="W19">
-        <f t="shared" si="9"/>
-        <v>0.10000000000000053</v>
+        <f>(U19-V19)</f>
+        <v>-0.10000000000000053</v>
       </c>
       <c r="X19" t="s">
         <v>32</v>
@@ -2373,7 +2372,7 @@
       </c>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
+      <c r="A20" s="22"/>
       <c r="B20" t="s">
         <v>19</v>
       </c>
@@ -2384,7 +2383,7 @@
         <v>-87.7</v>
       </c>
       <c r="E20">
-        <f t="shared" si="0"/>
+        <f>(C20-D20)</f>
         <v>1.5</v>
       </c>
       <c r="F20">
@@ -2394,7 +2393,7 @@
         <v>59.1</v>
       </c>
       <c r="H20">
-        <f t="shared" si="1"/>
+        <f>(F20-G20)</f>
         <v>2.8999999999999986</v>
       </c>
       <c r="I20">
@@ -2404,7 +2403,7 @@
         <v>2.8</v>
       </c>
       <c r="K20">
-        <f t="shared" si="2"/>
+        <f>(I20-J20)</f>
         <v>0.40000000000000036</v>
       </c>
       <c r="L20">
@@ -2414,8 +2413,8 @@
         <v>7</v>
       </c>
       <c r="N20">
-        <f t="shared" si="3"/>
-        <v>0.29999999999999982</v>
+        <f>(L20-M20)</f>
+        <v>-0.29999999999999982</v>
       </c>
       <c r="O20">
         <v>48</v>
@@ -2424,7 +2423,7 @@
         <v>45.1</v>
       </c>
       <c r="Q20">
-        <f t="shared" si="7"/>
+        <f>(O20-P20)</f>
         <v>2.8999999999999986</v>
       </c>
       <c r="R20">
@@ -2434,7 +2433,7 @@
         <v>2.1</v>
       </c>
       <c r="T20">
-        <f t="shared" si="8"/>
+        <f>(R20-S20)</f>
         <v>0.29999999999999982</v>
       </c>
       <c r="U20">
@@ -2444,8 +2443,8 @@
         <v>4.5</v>
       </c>
       <c r="W20">
-        <f t="shared" si="9"/>
-        <v>0.20000000000000018</v>
+        <f>(U20-V20)</f>
+        <v>-0.20000000000000018</v>
       </c>
       <c r="X20" t="s">
         <v>32</v>
@@ -2455,7 +2454,7 @@
       </c>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
+      <c r="A21" s="22"/>
       <c r="B21" t="s">
         <v>20</v>
       </c>
@@ -2466,7 +2465,7 @@
         <v>-87.6</v>
       </c>
       <c r="E21">
-        <f t="shared" si="0"/>
+        <f>(C21-D21)</f>
         <v>1</v>
       </c>
       <c r="F21">
@@ -2476,7 +2475,7 @@
         <v>70</v>
       </c>
       <c r="H21">
-        <f t="shared" si="1"/>
+        <f>(F21-G21)</f>
         <v>2</v>
       </c>
       <c r="I21">
@@ -2486,8 +2485,8 @@
         <v>3.1</v>
       </c>
       <c r="K21">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f>(I21-J21)</f>
+        <v>-0.5</v>
       </c>
       <c r="L21">
         <v>5.7</v>
@@ -2496,8 +2495,8 @@
         <v>5.9</v>
       </c>
       <c r="N21">
-        <f t="shared" si="3"/>
-        <v>0.20000000000000018</v>
+        <f>(L21-M21)</f>
+        <v>-0.20000000000000018</v>
       </c>
       <c r="O21">
         <v>45</v>
@@ -2506,7 +2505,7 @@
         <v>44.3</v>
       </c>
       <c r="Q21">
-        <f t="shared" si="7"/>
+        <f>(O21-P21)</f>
         <v>0.70000000000000284</v>
       </c>
       <c r="R21">
@@ -2516,7 +2515,7 @@
         <v>3.3</v>
       </c>
       <c r="T21">
-        <f t="shared" si="8"/>
+        <f>(R21-S21)</f>
         <v>0.10000000000000009</v>
       </c>
       <c r="U21">
@@ -2526,8 +2525,8 @@
         <v>4.7</v>
       </c>
       <c r="W21">
-        <f t="shared" si="9"/>
-        <v>0.10000000000000053</v>
+        <f>(U21-V21)</f>
+        <v>-0.10000000000000053</v>
       </c>
       <c r="X21" t="s">
         <v>32</v>
@@ -2537,7 +2536,7 @@
       </c>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
+      <c r="A22" s="22"/>
       <c r="B22" t="s">
         <v>21</v>
       </c>
@@ -2548,7 +2547,7 @@
         <v>-87.6</v>
       </c>
       <c r="E22">
-        <f t="shared" si="0"/>
+        <f>(C22-D22)</f>
         <v>1</v>
       </c>
       <c r="F22">
@@ -2558,7 +2557,7 @@
         <v>60.1</v>
       </c>
       <c r="H22">
-        <f t="shared" si="1"/>
+        <f>(F22-G22)</f>
         <v>0.89999999999999858</v>
       </c>
       <c r="I22">
@@ -2568,7 +2567,7 @@
         <v>0.2</v>
       </c>
       <c r="K22">
-        <f t="shared" si="2"/>
+        <f>(I22-J22)</f>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="L22">
@@ -2578,8 +2577,8 @@
         <v>6.7</v>
       </c>
       <c r="N22">
-        <f t="shared" si="3"/>
-        <v>0.10000000000000053</v>
+        <f>(L22-M22)</f>
+        <v>-0.10000000000000053</v>
       </c>
       <c r="O22">
         <v>45</v>
@@ -2588,7 +2587,7 @@
         <v>44</v>
       </c>
       <c r="Q22">
-        <f t="shared" si="7"/>
+        <f>(O22-P22)</f>
         <v>1</v>
       </c>
       <c r="R22">
@@ -2598,7 +2597,7 @@
         <v>5.9</v>
       </c>
       <c r="T22">
-        <f t="shared" si="8"/>
+        <f>(R22-S22)</f>
         <v>0.19999999999999929</v>
       </c>
       <c r="U22">
@@ -2608,8 +2607,8 @@
         <v>4.8</v>
       </c>
       <c r="W22">
-        <f t="shared" si="9"/>
-        <v>9.9999999999999645E-2</v>
+        <f>(U22-V22)</f>
+        <v>-9.9999999999999645E-2</v>
       </c>
       <c r="X22" t="s">
         <v>32</v>
@@ -2619,7 +2618,7 @@
       </c>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
+      <c r="A23" s="22"/>
       <c r="B23" t="s">
         <v>22</v>
       </c>
@@ -2629,10 +2628,6 @@
       <c r="D23">
         <v>-87.6</v>
       </c>
-      <c r="E23">
-        <f t="shared" si="0"/>
-        <v>1.0799999999999983</v>
-      </c>
       <c r="X23" t="s">
         <v>32</v>
       </c>
@@ -2641,7 +2636,7 @@
       </c>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="22" t="s">
         <v>24</v>
       </c>
       <c r="B24" t="s">
@@ -2654,8 +2649,8 @@
         <v>-88.5</v>
       </c>
       <c r="E24">
-        <f t="shared" si="0"/>
-        <v>1.2999999999999972</v>
+        <f>(C24-D24)</f>
+        <v>-1.2999999999999972</v>
       </c>
       <c r="F24">
         <v>34</v>
@@ -2664,8 +2659,8 @@
         <v>41.3</v>
       </c>
       <c r="H24">
-        <f t="shared" si="1"/>
-        <v>7.2999999999999972</v>
+        <f>(F24-G24)</f>
+        <v>-7.2999999999999972</v>
       </c>
       <c r="I24">
         <v>10.7</v>
@@ -2674,7 +2669,7 @@
         <v>9.1</v>
       </c>
       <c r="K24">
-        <f t="shared" si="2"/>
+        <f>(I24-J24)</f>
         <v>1.5999999999999996</v>
       </c>
       <c r="L24">
@@ -2684,7 +2679,7 @@
         <v>10.7</v>
       </c>
       <c r="N24">
-        <f t="shared" si="3"/>
+        <f>(L24-M24)</f>
         <v>2.7000000000000011</v>
       </c>
       <c r="P24">
@@ -2710,7 +2705,7 @@
       </c>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
+      <c r="A25" s="22"/>
       <c r="B25" t="s">
         <v>22</v>
       </c>
@@ -2720,10 +2715,6 @@
       <c r="D25">
         <v>-88.5</v>
       </c>
-      <c r="E25">
-        <f t="shared" si="0"/>
-        <v>1.2600000000000051</v>
-      </c>
       <c r="X25" t="s">
         <v>31</v>
       </c>
@@ -2732,7 +2723,7 @@
       </c>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="22" t="s">
         <v>25</v>
       </c>
       <c r="B26" t="s">
@@ -2745,8 +2736,8 @@
         <v>-89.8</v>
       </c>
       <c r="E26">
-        <f t="shared" si="0"/>
-        <v>0.40000000000000568</v>
+        <f>(C26-D26)</f>
+        <v>-0.40000000000000568</v>
       </c>
       <c r="F26">
         <v>45</v>
@@ -2755,8 +2746,8 @@
         <v>64.5</v>
       </c>
       <c r="H26">
-        <f>ABS(F26-G26)</f>
-        <v>19.5</v>
+        <f>(F26-G26)</f>
+        <v>-19.5</v>
       </c>
       <c r="I26">
         <v>23.8</v>
@@ -2765,7 +2756,7 @@
         <v>20.2</v>
       </c>
       <c r="K26">
-        <f t="shared" si="2"/>
+        <f>(I26-J26)</f>
         <v>3.6000000000000014</v>
       </c>
       <c r="L26">
@@ -2775,7 +2766,7 @@
         <v>7.8</v>
       </c>
       <c r="N26">
-        <f t="shared" si="3"/>
+        <f>(L26-M26)</f>
         <v>3.8</v>
       </c>
       <c r="O26">
@@ -2785,8 +2776,8 @@
         <v>31</v>
       </c>
       <c r="Q26">
-        <f t="shared" ref="Q26:Q30" si="10">ABS(O26-P26)</f>
-        <v>5</v>
+        <f>(O26-P26)</f>
+        <v>-5</v>
       </c>
       <c r="R26">
         <v>3.4</v>
@@ -2795,7 +2786,7 @@
         <v>3.4</v>
       </c>
       <c r="T26">
-        <f>ABS(R26-S26)</f>
+        <f>(R26-S26)</f>
         <v>0</v>
       </c>
       <c r="U26">
@@ -2805,7 +2796,7 @@
         <v>6.7</v>
       </c>
       <c r="W26">
-        <f>ABS(U26-V26)</f>
+        <f>(U26-V26)</f>
         <v>1.2000000000000002</v>
       </c>
       <c r="X26" t="s">
@@ -2816,7 +2807,7 @@
       </c>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
+      <c r="A27" s="22"/>
       <c r="B27" t="s">
         <v>13</v>
       </c>
@@ -2827,7 +2818,7 @@
         <v>-90.3</v>
       </c>
       <c r="E27">
-        <f t="shared" si="0"/>
+        <f>(C27-D27)</f>
         <v>9.9999999999994316E-2</v>
       </c>
       <c r="F27">
@@ -2837,8 +2828,8 @@
         <v>60.8</v>
       </c>
       <c r="H27">
-        <f t="shared" si="1"/>
-        <v>10.799999999999997</v>
+        <f>(F27-G27)</f>
+        <v>-10.799999999999997</v>
       </c>
       <c r="I27">
         <v>23.5</v>
@@ -2847,7 +2838,7 @@
         <v>19.899999999999999</v>
       </c>
       <c r="K27">
-        <f t="shared" si="2"/>
+        <f>(I27-J27)</f>
         <v>3.6000000000000014</v>
       </c>
       <c r="L27">
@@ -2857,7 +2848,7 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="N27">
-        <f t="shared" si="3"/>
+        <f>(L27-M27)</f>
         <v>2.2000000000000011</v>
       </c>
       <c r="O27">
@@ -2867,8 +2858,8 @@
         <v>30.6</v>
       </c>
       <c r="Q27">
-        <f t="shared" si="10"/>
-        <v>7.6000000000000014</v>
+        <f>(O27-P27)</f>
+        <v>-7.6000000000000014</v>
       </c>
       <c r="R27">
         <v>4.0999999999999996</v>
@@ -2877,8 +2868,8 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="T27">
-        <f t="shared" ref="T27:T30" si="11">ABS(R27-S27)</f>
-        <v>0.30000000000000071</v>
+        <f>(R27-S27)</f>
+        <v>-0.30000000000000071</v>
       </c>
       <c r="U27">
         <v>9</v>
@@ -2887,7 +2878,7 @@
         <v>6.8</v>
       </c>
       <c r="W27">
-        <f t="shared" ref="W27:W30" si="12">ABS(U27-V27)</f>
+        <f>(U27-V27)</f>
         <v>2.2000000000000002</v>
       </c>
       <c r="X27" t="s">
@@ -2898,7 +2889,7 @@
       </c>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
+      <c r="A28" s="22"/>
       <c r="B28" t="s">
         <v>14</v>
       </c>
@@ -2909,7 +2900,7 @@
         <v>-90.4</v>
       </c>
       <c r="E28">
-        <f t="shared" si="0"/>
+        <f>(C28-D28)</f>
         <v>0.20000000000000284</v>
       </c>
       <c r="F28">
@@ -2919,8 +2910,8 @@
         <v>58.3</v>
       </c>
       <c r="H28">
-        <f t="shared" si="1"/>
-        <v>10.299999999999997</v>
+        <f>(F28-G28)</f>
+        <v>-10.299999999999997</v>
       </c>
       <c r="I28">
         <v>19.2</v>
@@ -2929,8 +2920,8 @@
         <v>20.8</v>
       </c>
       <c r="K28">
-        <f t="shared" si="2"/>
-        <v>1.6000000000000014</v>
+        <f>(I28-J28)</f>
+        <v>-1.6000000000000014</v>
       </c>
       <c r="L28">
         <v>10.199999999999999</v>
@@ -2939,7 +2930,7 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="N28">
-        <f t="shared" si="3"/>
+        <f>(L28-M28)</f>
         <v>1.5</v>
       </c>
       <c r="O28">
@@ -2949,7 +2940,7 @@
         <v>26.9</v>
       </c>
       <c r="Q28">
-        <f t="shared" si="10"/>
+        <f>(O28-P28)</f>
         <v>0.10000000000000142</v>
       </c>
       <c r="R28">
@@ -2959,8 +2950,8 @@
         <v>0.6</v>
       </c>
       <c r="T28">
-        <f t="shared" si="11"/>
-        <v>0.5</v>
+        <f>(R28-S28)</f>
+        <v>-0.5</v>
       </c>
       <c r="U28">
         <v>7.3</v>
@@ -2969,8 +2960,8 @@
         <v>7.5</v>
       </c>
       <c r="W28">
-        <f t="shared" si="12"/>
-        <v>0.20000000000000018</v>
+        <f>(U28-V28)</f>
+        <v>-0.20000000000000018</v>
       </c>
       <c r="X28" t="s">
         <v>32</v>
@@ -2980,7 +2971,7 @@
       </c>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
+      <c r="A29" s="22"/>
       <c r="B29" t="s">
         <v>15</v>
       </c>
@@ -2991,7 +2982,7 @@
         <v>-90.4</v>
       </c>
       <c r="E29">
-        <f t="shared" si="0"/>
+        <f>(C29-D29)</f>
         <v>0.20000000000000284</v>
       </c>
       <c r="F29">
@@ -3001,8 +2992,8 @@
         <v>50.3</v>
       </c>
       <c r="H29">
-        <f t="shared" si="1"/>
-        <v>9.2999999999999972</v>
+        <f>(F29-G29)</f>
+        <v>-9.2999999999999972</v>
       </c>
       <c r="I29">
         <v>9.1999999999999993</v>
@@ -3011,8 +3002,8 @@
         <v>14.7</v>
       </c>
       <c r="K29">
-        <f t="shared" si="2"/>
-        <v>5.5</v>
+        <f>(I29-J29)</f>
+        <v>-5.5</v>
       </c>
       <c r="L29">
         <v>10.7</v>
@@ -3021,7 +3012,7 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="N29">
-        <f t="shared" si="3"/>
+        <f>(L29-M29)</f>
         <v>1.3999999999999986</v>
       </c>
       <c r="O29">
@@ -3031,8 +3022,8 @@
         <v>25.1</v>
       </c>
       <c r="Q29">
-        <f t="shared" si="10"/>
-        <v>6.1000000000000014</v>
+        <f>(O29-P29)</f>
+        <v>-6.1000000000000014</v>
       </c>
       <c r="R29">
         <v>1.1000000000000001</v>
@@ -3041,7 +3032,7 @@
         <v>1</v>
       </c>
       <c r="T29">
-        <f t="shared" si="11"/>
+        <f>(R29-S29)</f>
         <v>0.10000000000000009</v>
       </c>
       <c r="U29">
@@ -3051,7 +3042,7 @@
         <v>8</v>
       </c>
       <c r="W29">
-        <f t="shared" si="12"/>
+        <f>(U29-V29)</f>
         <v>2.8000000000000007</v>
       </c>
       <c r="X29" t="s">
@@ -3062,7 +3053,7 @@
       </c>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
+      <c r="A30" s="22"/>
       <c r="B30" t="s">
         <v>16</v>
       </c>
@@ -3073,7 +3064,7 @@
         <v>-90.6</v>
       </c>
       <c r="E30">
-        <f t="shared" si="0"/>
+        <f>(C30-D30)</f>
         <v>0.39999999999999147</v>
       </c>
       <c r="F30">
@@ -3083,8 +3074,8 @@
         <v>60.8</v>
       </c>
       <c r="H30">
-        <f t="shared" si="1"/>
-        <v>11.799999999999997</v>
+        <f>(F30-G30)</f>
+        <v>-11.799999999999997</v>
       </c>
       <c r="I30">
         <v>10.9</v>
@@ -3093,7 +3084,7 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="K30">
-        <f t="shared" si="2"/>
+        <f>(I30-J30)</f>
         <v>2.2000000000000011</v>
       </c>
       <c r="L30">
@@ -3103,7 +3094,7 @@
         <v>7.2</v>
       </c>
       <c r="N30">
-        <f t="shared" si="3"/>
+        <f>(L30-M30)</f>
         <v>1.9999999999999991</v>
       </c>
       <c r="O30">
@@ -3113,8 +3104,8 @@
         <v>26.9</v>
       </c>
       <c r="Q30">
-        <f t="shared" si="10"/>
-        <v>5.8999999999999986</v>
+        <f>(O30-P30)</f>
+        <v>-5.8999999999999986</v>
       </c>
       <c r="R30">
         <v>6</v>
@@ -3123,7 +3114,7 @@
         <v>5.5</v>
       </c>
       <c r="T30">
-        <f t="shared" si="11"/>
+        <f>(R30-S30)</f>
         <v>0.5</v>
       </c>
       <c r="U30">
@@ -3133,7 +3124,7 @@
         <v>7.9</v>
       </c>
       <c r="W30">
-        <f t="shared" si="12"/>
+        <f>(U30-V30)</f>
         <v>2.0999999999999996</v>
       </c>
       <c r="X30" t="s">
@@ -3144,7 +3135,7 @@
       </c>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
+      <c r="A31" s="22"/>
       <c r="B31" t="s">
         <v>17</v>
       </c>
@@ -3155,8 +3146,8 @@
         <v>-90.7</v>
       </c>
       <c r="E31">
-        <f t="shared" si="0"/>
-        <v>1.0999999999999943</v>
+        <f>(C31-D31)</f>
+        <v>-1.0999999999999943</v>
       </c>
       <c r="F31">
         <v>40</v>
@@ -3165,7 +3156,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <f t="shared" si="1"/>
+        <f>(F31-G31)</f>
         <v>40</v>
       </c>
       <c r="I31">
@@ -3175,8 +3166,8 @@
         <v>75</v>
       </c>
       <c r="K31">
-        <f t="shared" si="2"/>
-        <v>58.4</v>
+        <f>(I31-J31)</f>
+        <v>-58.4</v>
       </c>
       <c r="L31">
         <v>12.1</v>
@@ -3222,7 +3213,7 @@
       </c>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
+      <c r="A32" s="22"/>
       <c r="B32" t="s">
         <v>22</v>
       </c>
@@ -3232,10 +3223,6 @@
       <c r="D32">
         <v>-90.4</v>
       </c>
-      <c r="E32">
-        <f t="shared" si="0"/>
-        <v>4.0000000000006253E-2</v>
-      </c>
       <c r="X32" t="s">
         <v>31</v>
       </c>
@@ -3244,7 +3231,7 @@
       </c>
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="22" t="s">
         <v>27</v>
       </c>
       <c r="B33" t="s">
@@ -3257,7 +3244,7 @@
         <v>-89.8</v>
       </c>
       <c r="E33">
-        <f t="shared" si="0"/>
+        <f>(C33-D33)</f>
         <v>0</v>
       </c>
       <c r="F33">
@@ -3267,7 +3254,7 @@
         <v>24</v>
       </c>
       <c r="H33">
-        <f t="shared" si="1"/>
+        <f>(F33-G33)</f>
         <v>0</v>
       </c>
       <c r="I33">
@@ -3277,7 +3264,7 @@
         <v>17.7</v>
       </c>
       <c r="K33">
-        <f t="shared" si="2"/>
+        <f>(I33-J33)</f>
         <v>1.6000000000000014</v>
       </c>
       <c r="L33">
@@ -3287,7 +3274,7 @@
         <v>20.3</v>
       </c>
       <c r="N33">
-        <f t="shared" si="3"/>
+        <f>(L33-M33)</f>
         <v>0.19999999999999929</v>
       </c>
       <c r="P33">
@@ -3319,7 +3306,7 @@
       </c>
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A34" s="8"/>
+      <c r="A34" s="22"/>
       <c r="B34" t="s">
         <v>22</v>
       </c>
@@ -3329,10 +3316,6 @@
       <c r="D34">
         <v>-90</v>
       </c>
-      <c r="E34">
-        <f t="shared" si="0"/>
-        <v>0.12000000000000455</v>
-      </c>
       <c r="X34" t="s">
         <v>31</v>
       </c>
@@ -3341,7 +3324,7 @@
       </c>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="22" t="s">
         <v>28</v>
       </c>
       <c r="B35" t="s">
@@ -3354,7 +3337,7 @@
         <v>-92</v>
       </c>
       <c r="E35">
-        <f t="shared" si="0"/>
+        <f>(C35-D35)</f>
         <v>1.4000000000000057</v>
       </c>
       <c r="F35">
@@ -3364,7 +3347,7 @@
         <v>61.1</v>
       </c>
       <c r="H35">
-        <f t="shared" si="1"/>
+        <f>(F35-G35)</f>
         <v>1.8999999999999986</v>
       </c>
       <c r="I35">
@@ -3374,8 +3357,8 @@
         <v>13.8</v>
       </c>
       <c r="K35">
-        <f t="shared" si="2"/>
-        <v>4.7000000000000011</v>
+        <f>(I35-J35)</f>
+        <v>-4.7000000000000011</v>
       </c>
       <c r="L35">
         <v>7</v>
@@ -3384,8 +3367,8 @@
         <v>7.6</v>
       </c>
       <c r="N35">
-        <f t="shared" si="3"/>
-        <v>0.59999999999999964</v>
+        <f>(L35-M35)</f>
+        <v>-0.59999999999999964</v>
       </c>
       <c r="O35">
         <v>46</v>
@@ -3394,7 +3377,7 @@
         <v>42.1</v>
       </c>
       <c r="Q35">
-        <f>ABS(O35-P35)</f>
+        <f>(O35-P35)</f>
         <v>3.8999999999999986</v>
       </c>
       <c r="R35">
@@ -3404,8 +3387,8 @@
         <v>1.3</v>
       </c>
       <c r="T35">
-        <f>ABS(R35-S35)</f>
-        <v>0.19999999999999996</v>
+        <f>(R35-S35)</f>
+        <v>-0.19999999999999996</v>
       </c>
       <c r="U35">
         <v>4.4000000000000004</v>
@@ -3414,8 +3397,8 @@
         <v>4.8</v>
       </c>
       <c r="W35">
-        <f>ABS(U35-V35)</f>
-        <v>0.39999999999999947</v>
+        <f>(U35-V35)</f>
+        <v>-0.39999999999999947</v>
       </c>
       <c r="X35" t="s">
         <v>32</v>
@@ -3425,7 +3408,7 @@
       </c>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
+      <c r="A36" s="22"/>
       <c r="B36" t="s">
         <v>13</v>
       </c>
@@ -3436,7 +3419,7 @@
         <v>-91.4</v>
       </c>
       <c r="E36">
-        <f t="shared" si="0"/>
+        <f>(C36-D36)</f>
         <v>0.80000000000001137</v>
       </c>
       <c r="F36">
@@ -3446,7 +3429,7 @@
         <v>67.900000000000006</v>
       </c>
       <c r="H36">
-        <f t="shared" si="1"/>
+        <f>(F36-G36)</f>
         <v>2.0999999999999943</v>
       </c>
       <c r="I36">
@@ -3456,7 +3439,7 @@
         <v>7.4</v>
       </c>
       <c r="K36">
-        <f t="shared" si="2"/>
+        <f>(I36-J36)</f>
         <v>1.1999999999999993</v>
       </c>
       <c r="L36">
@@ -3466,8 +3449,8 @@
         <v>6.4</v>
       </c>
       <c r="N36">
-        <f t="shared" si="3"/>
-        <v>0.10000000000000053</v>
+        <f>(L36-M36)</f>
+        <v>-0.10000000000000053</v>
       </c>
       <c r="O36">
         <v>44</v>
@@ -3476,7 +3459,7 @@
         <v>40.799999999999997</v>
       </c>
       <c r="Q36">
-        <f t="shared" ref="Q36:Q44" si="13">ABS(O36-P36)</f>
+        <f>(O36-P36)</f>
         <v>3.2000000000000028</v>
       </c>
       <c r="R36">
@@ -3486,7 +3469,7 @@
         <v>0.5</v>
       </c>
       <c r="T36">
-        <f t="shared" ref="T36:T44" si="14">ABS(R36-S36)</f>
+        <f>(R36-S36)</f>
         <v>0.30000000000000004</v>
       </c>
       <c r="U36">
@@ -3496,8 +3479,8 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="W36">
-        <f t="shared" ref="W36:W44" si="15">ABS(U36-V36)</f>
-        <v>0.30000000000000071</v>
+        <f>(U36-V36)</f>
+        <v>-0.30000000000000071</v>
       </c>
       <c r="X36" t="s">
         <v>32</v>
@@ -3507,7 +3490,7 @@
       </c>
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A37" s="8"/>
+      <c r="A37" s="22"/>
       <c r="B37" t="s">
         <v>14</v>
       </c>
@@ -3518,7 +3501,7 @@
         <v>-91.4</v>
       </c>
       <c r="E37">
-        <f t="shared" si="0"/>
+        <f>(C37-D37)</f>
         <v>0.40000000000000568</v>
       </c>
       <c r="F37">
@@ -3528,8 +3511,8 @@
         <v>70</v>
       </c>
       <c r="H37">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>(F37-G37)</f>
+        <v>-1</v>
       </c>
       <c r="I37">
         <v>7.6</v>
@@ -3538,7 +3521,7 @@
         <v>6</v>
       </c>
       <c r="K37">
-        <f t="shared" si="2"/>
+        <f>(I37-J37)</f>
         <v>1.5999999999999996</v>
       </c>
       <c r="L37">
@@ -3548,7 +3531,7 @@
         <v>6.1</v>
       </c>
       <c r="N37">
-        <f t="shared" si="3"/>
+        <f>(L37-M37)</f>
         <v>0.20000000000000018</v>
       </c>
       <c r="O37">
@@ -3558,7 +3541,7 @@
         <v>42.8</v>
       </c>
       <c r="Q37">
-        <f t="shared" si="13"/>
+        <f>(O37-P37)</f>
         <v>1.2000000000000028</v>
       </c>
       <c r="R37">
@@ -3568,7 +3551,7 @@
         <v>4.5</v>
       </c>
       <c r="T37">
-        <f t="shared" si="14"/>
+        <f>(R37-S37)</f>
         <v>2.4000000000000004</v>
       </c>
       <c r="U37">
@@ -3578,7 +3561,7 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="W37">
-        <f t="shared" si="15"/>
+        <f>(U37-V37)</f>
         <v>0</v>
       </c>
       <c r="X37" t="s">
@@ -3589,7 +3572,7 @@
       </c>
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A38" s="8"/>
+      <c r="A38" s="22"/>
       <c r="B38" t="s">
         <v>15</v>
       </c>
@@ -3600,7 +3583,7 @@
         <v>-91.4</v>
       </c>
       <c r="E38">
-        <f t="shared" si="0"/>
+        <f>(C38-D38)</f>
         <v>0.80000000000001137</v>
       </c>
       <c r="F38">
@@ -3610,8 +3593,8 @@
         <v>68.5</v>
       </c>
       <c r="H38">
-        <f t="shared" si="1"/>
-        <v>1.5</v>
+        <f>(F38-G38)</f>
+        <v>-1.5</v>
       </c>
       <c r="I38">
         <v>7</v>
@@ -3620,7 +3603,7 @@
         <v>5.2</v>
       </c>
       <c r="K38">
-        <f t="shared" si="2"/>
+        <f>(I38-J38)</f>
         <v>1.7999999999999998</v>
       </c>
       <c r="L38">
@@ -3630,7 +3613,7 @@
         <v>6.2</v>
       </c>
       <c r="N38">
-        <f t="shared" si="3"/>
+        <f>(L38-M38)</f>
         <v>0.29999999999999982</v>
       </c>
       <c r="O38">
@@ -3640,7 +3623,7 @@
         <v>38.9</v>
       </c>
       <c r="Q38">
-        <f t="shared" si="13"/>
+        <f>(O38-P38)</f>
         <v>0.10000000000000142</v>
       </c>
       <c r="R38">
@@ -3650,7 +3633,7 @@
         <v>4.5</v>
       </c>
       <c r="T38">
-        <f t="shared" si="14"/>
+        <f>(R38-S38)</f>
         <v>1.7000000000000002</v>
       </c>
       <c r="U38">
@@ -3660,7 +3643,7 @@
         <v>5.4</v>
       </c>
       <c r="W38">
-        <f t="shared" si="15"/>
+        <f>(U38-V38)</f>
         <v>0</v>
       </c>
       <c r="X38" t="s">
@@ -3671,7 +3654,7 @@
       </c>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A39" s="8"/>
+      <c r="A39" s="22"/>
       <c r="B39" t="s">
         <v>16</v>
       </c>
@@ -3682,7 +3665,7 @@
         <v>-91.4</v>
       </c>
       <c r="E39">
-        <f t="shared" si="0"/>
+        <f>(C39-D39)</f>
         <v>0.80000000000001137</v>
       </c>
       <c r="F39">
@@ -3692,7 +3675,7 @@
         <v>69.400000000000006</v>
       </c>
       <c r="H39">
-        <f t="shared" si="1"/>
+        <f>(F39-G39)</f>
         <v>1.5999999999999943</v>
       </c>
       <c r="I39">
@@ -3702,7 +3685,7 @@
         <v>6.9</v>
       </c>
       <c r="K39">
-        <f t="shared" si="2"/>
+        <f>(I39-J39)</f>
         <v>2.0999999999999996</v>
       </c>
       <c r="L39">
@@ -3712,7 +3695,7 @@
         <v>6.2</v>
       </c>
       <c r="N39">
-        <f t="shared" si="3"/>
+        <f>(L39-M39)</f>
         <v>0</v>
       </c>
       <c r="O39">
@@ -3722,7 +3705,7 @@
         <v>41.7</v>
       </c>
       <c r="Q39">
-        <f t="shared" si="13"/>
+        <f>(O39-P39)</f>
         <v>4.2999999999999972</v>
       </c>
       <c r="R39">
@@ -3732,7 +3715,7 @@
         <v>0.3</v>
       </c>
       <c r="T39">
-        <f t="shared" si="14"/>
+        <f>(R39-S39)</f>
         <v>0.5</v>
       </c>
       <c r="U39">
@@ -3742,8 +3725,8 @@
         <v>4.8</v>
       </c>
       <c r="W39">
-        <f t="shared" si="15"/>
-        <v>0.5</v>
+        <f>(U39-V39)</f>
+        <v>-0.5</v>
       </c>
       <c r="X39" t="s">
         <v>32</v>
@@ -3753,7 +3736,7 @@
       </c>
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A40" s="8"/>
+      <c r="A40" s="22"/>
       <c r="B40" t="s">
         <v>17</v>
       </c>
@@ -3764,7 +3747,7 @@
         <v>-91.4</v>
       </c>
       <c r="E40">
-        <f t="shared" si="0"/>
+        <f>(C40-D40)</f>
         <v>0.80000000000001137</v>
       </c>
       <c r="F40">
@@ -3774,7 +3757,7 @@
         <v>67.8</v>
       </c>
       <c r="H40">
-        <f t="shared" si="1"/>
+        <f>(F40-G40)</f>
         <v>2.2000000000000028</v>
       </c>
       <c r="I40">
@@ -3784,8 +3767,8 @@
         <v>16.7</v>
       </c>
       <c r="K40">
-        <f t="shared" si="2"/>
-        <v>10.6</v>
+        <f>(I40-J40)</f>
+        <v>-10.6</v>
       </c>
       <c r="L40">
         <v>6.1</v>
@@ -3794,8 +3777,8 @@
         <v>7.1</v>
       </c>
       <c r="N40">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f>(L40-M40)</f>
+        <v>-1</v>
       </c>
       <c r="O40">
         <v>46</v>
@@ -3804,7 +3787,7 @@
         <v>45.9</v>
       </c>
       <c r="Q40">
-        <f t="shared" si="13"/>
+        <f>(O40-P40)</f>
         <v>0.10000000000000142</v>
       </c>
       <c r="R40">
@@ -3814,8 +3797,8 @@
         <v>0.8</v>
       </c>
       <c r="T40">
-        <f t="shared" si="14"/>
-        <v>0.30000000000000004</v>
+        <f>(R40-S40)</f>
+        <v>-0.30000000000000004</v>
       </c>
       <c r="U40">
         <v>4.4000000000000004</v>
@@ -3824,7 +3807,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="W40">
-        <f t="shared" si="15"/>
+        <f>(U40-V40)</f>
         <v>0</v>
       </c>
       <c r="X40" t="s">
@@ -3835,7 +3818,7 @@
       </c>
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A41" s="8"/>
+      <c r="A41" s="22"/>
       <c r="B41" t="s">
         <v>18</v>
       </c>
@@ -3846,7 +3829,7 @@
         <v>-92</v>
       </c>
       <c r="E41">
-        <f t="shared" si="0"/>
+        <f>(C41-D41)</f>
         <v>1</v>
       </c>
       <c r="F41">
@@ -3856,8 +3839,8 @@
         <v>73.8</v>
       </c>
       <c r="H41">
-        <f t="shared" si="1"/>
-        <v>4.7999999999999972</v>
+        <f>(F41-G41)</f>
+        <v>-4.7999999999999972</v>
       </c>
       <c r="I41">
         <v>15.7</v>
@@ -3866,8 +3849,8 @@
         <v>19.399999999999999</v>
       </c>
       <c r="K41">
-        <f t="shared" si="2"/>
-        <v>3.6999999999999993</v>
+        <f>(I41-J41)</f>
+        <v>-3.6999999999999993</v>
       </c>
       <c r="L41">
         <v>6.9</v>
@@ -3876,7 +3859,7 @@
         <v>6.7</v>
       </c>
       <c r="N41">
-        <f t="shared" si="3"/>
+        <f>(L41-M41)</f>
         <v>0.20000000000000018</v>
       </c>
       <c r="O41">
@@ -3886,7 +3869,7 @@
         <v>40.700000000000003</v>
       </c>
       <c r="Q41">
-        <f t="shared" si="13"/>
+        <f>(O41-P41)</f>
         <v>3.2999999999999972</v>
       </c>
       <c r="R41">
@@ -3896,7 +3879,7 @@
         <v>1</v>
       </c>
       <c r="T41">
-        <f t="shared" si="14"/>
+        <f>(R41-S41)</f>
         <v>0.30000000000000004</v>
       </c>
       <c r="U41">
@@ -3906,8 +3889,8 @@
         <v>5</v>
       </c>
       <c r="W41">
-        <f t="shared" si="15"/>
-        <v>0.40000000000000036</v>
+        <f>(U41-V41)</f>
+        <v>-0.40000000000000036</v>
       </c>
       <c r="X41" t="s">
         <v>32</v>
@@ -3917,7 +3900,7 @@
       </c>
     </row>
     <row r="42" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A42" s="8"/>
+      <c r="A42" s="22"/>
       <c r="B42" t="s">
         <v>19</v>
       </c>
@@ -3928,7 +3911,7 @@
         <v>-92.1</v>
       </c>
       <c r="E42">
-        <f t="shared" si="0"/>
+        <f>(C42-D42)</f>
         <v>1.0999999999999943</v>
       </c>
       <c r="F42">
@@ -3938,7 +3921,7 @@
         <v>68.7</v>
       </c>
       <c r="H42">
-        <f t="shared" si="1"/>
+        <f>(F42-G42)</f>
         <v>5.2999999999999972</v>
       </c>
       <c r="I42">
@@ -3948,7 +3931,7 @@
         <v>6.1</v>
       </c>
       <c r="K42">
-        <f t="shared" si="2"/>
+        <f>(I42-J42)</f>
         <v>10.1</v>
       </c>
       <c r="L42">
@@ -3958,7 +3941,7 @@
         <v>6.2</v>
       </c>
       <c r="N42">
-        <f t="shared" si="3"/>
+        <f>(L42-M42)</f>
         <v>0.29999999999999982</v>
       </c>
       <c r="O42">
@@ -3968,7 +3951,7 @@
         <v>44.3</v>
       </c>
       <c r="Q42">
-        <f t="shared" si="13"/>
+        <f>(O42-P42)</f>
         <v>1.7000000000000028</v>
       </c>
       <c r="R42">
@@ -3978,7 +3961,7 @@
         <v>0.2</v>
       </c>
       <c r="T42">
-        <f t="shared" si="14"/>
+        <f>(R42-S42)</f>
         <v>0.49999999999999994</v>
       </c>
       <c r="U42">
@@ -3988,8 +3971,8 @@
         <v>4.5</v>
       </c>
       <c r="W42">
-        <f t="shared" si="15"/>
-        <v>9.9999999999999645E-2</v>
+        <f>(U42-V42)</f>
+        <v>-9.9999999999999645E-2</v>
       </c>
       <c r="X42" t="s">
         <v>32</v>
@@ -3999,7 +3982,7 @@
       </c>
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A43" s="8"/>
+      <c r="A43" s="22"/>
       <c r="B43" t="s">
         <v>20</v>
       </c>
@@ -4010,7 +3993,7 @@
         <v>-91.4</v>
       </c>
       <c r="E43">
-        <f t="shared" si="0"/>
+        <f>(C43-D43)</f>
         <v>0.80000000000001137</v>
       </c>
       <c r="F43">
@@ -4020,7 +4003,7 @@
         <v>66.8</v>
       </c>
       <c r="H43">
-        <f t="shared" si="1"/>
+        <f>(F43-G43)</f>
         <v>3.2000000000000028</v>
       </c>
       <c r="I43">
@@ -4030,8 +4013,8 @@
         <v>7.2</v>
       </c>
       <c r="K43">
-        <f t="shared" si="2"/>
-        <v>3.8000000000000003</v>
+        <f>(I43-J43)</f>
+        <v>-3.8000000000000003</v>
       </c>
       <c r="L43">
         <v>5.9</v>
@@ -4040,8 +4023,8 @@
         <v>6.5</v>
       </c>
       <c r="N43">
-        <f t="shared" si="3"/>
-        <v>0.59999999999999964</v>
+        <f>(L43-M43)</f>
+        <v>-0.59999999999999964</v>
       </c>
       <c r="O43">
         <v>44</v>
@@ -4050,7 +4033,7 @@
         <v>38.4</v>
       </c>
       <c r="Q43">
-        <f t="shared" si="13"/>
+        <f>(O43-P43)</f>
         <v>5.6000000000000014</v>
       </c>
       <c r="R43">
@@ -4060,7 +4043,7 @@
         <v>1.5</v>
       </c>
       <c r="T43">
-        <f t="shared" si="14"/>
+        <f>(R43-S43)</f>
         <v>0.60000000000000009</v>
       </c>
       <c r="U43">
@@ -4070,8 +4053,8 @@
         <v>5.3</v>
       </c>
       <c r="W43">
-        <f t="shared" si="15"/>
-        <v>0.59999999999999964</v>
+        <f>(U43-V43)</f>
+        <v>-0.59999999999999964</v>
       </c>
       <c r="X43" t="s">
         <v>32</v>
@@ -4081,7 +4064,7 @@
       </c>
     </row>
     <row r="44" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A44" s="8"/>
+      <c r="A44" s="22"/>
       <c r="B44" t="s">
         <v>21</v>
       </c>
@@ -4092,7 +4075,7 @@
         <v>-91.4</v>
       </c>
       <c r="E44">
-        <f t="shared" si="0"/>
+        <f>(C44-D44)</f>
         <v>0.40000000000000568</v>
       </c>
       <c r="F44">
@@ -4102,7 +4085,7 @@
         <v>65.599999999999994</v>
       </c>
       <c r="H44">
-        <f t="shared" si="1"/>
+        <f>(F44-G44)</f>
         <v>0.40000000000000568</v>
       </c>
       <c r="I44">
@@ -4112,7 +4095,7 @@
         <v>6.2</v>
       </c>
       <c r="K44">
-        <f t="shared" si="2"/>
+        <f>(I44-J44)</f>
         <v>1.5</v>
       </c>
       <c r="L44">
@@ -4122,7 +4105,7 @@
         <v>6.5</v>
       </c>
       <c r="N44">
-        <f>ABS(L44-M44)</f>
+        <f>(L44-M44)</f>
         <v>9.9999999999999645E-2</v>
       </c>
       <c r="O44">
@@ -4132,7 +4115,7 @@
         <v>43.5</v>
       </c>
       <c r="Q44">
-        <f t="shared" si="13"/>
+        <f>(O44-P44)</f>
         <v>2.5</v>
       </c>
       <c r="R44">
@@ -4142,7 +4125,7 @@
         <v>1.5</v>
       </c>
       <c r="T44">
-        <f t="shared" si="14"/>
+        <f>(R44-S44)</f>
         <v>0.39999999999999991</v>
       </c>
       <c r="U44">
@@ -4152,8 +4135,8 @@
         <v>4.7</v>
       </c>
       <c r="W44">
-        <f t="shared" si="15"/>
-        <v>0.20000000000000018</v>
+        <f>(U44-V44)</f>
+        <v>-0.20000000000000018</v>
       </c>
       <c r="X44" t="s">
         <v>32</v>
@@ -4163,7 +4146,7 @@
       </c>
     </row>
     <row r="45" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A45" s="8"/>
+      <c r="A45" s="22"/>
       <c r="B45" t="s">
         <v>22</v>
       </c>
@@ -4173,10 +4156,6 @@
       <c r="D45">
         <v>-91.6</v>
       </c>
-      <c r="E45">
-        <f t="shared" si="0"/>
-        <v>0.8399999999999892</v>
-      </c>
       <c r="X45" t="s">
         <v>32</v>
       </c>
@@ -4185,7 +4164,7 @@
       </c>
     </row>
     <row r="46" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A46" s="8" t="s">
+      <c r="A46" s="22" t="s">
         <v>29</v>
       </c>
       <c r="B46" t="s">
@@ -4198,7 +4177,7 @@
         <v>-93.4</v>
       </c>
       <c r="E46">
-        <f>ABS(C46-D46)</f>
+        <f>(C46-D46)</f>
         <v>1.2000000000000028</v>
       </c>
       <c r="F46">
@@ -4208,7 +4187,7 @@
         <v>61.2</v>
       </c>
       <c r="H46">
-        <f>ABS(F46-G46)</f>
+        <f>(F46-G46)</f>
         <v>6.7999999999999972</v>
       </c>
       <c r="I46">
@@ -4218,8 +4197,8 @@
         <v>20.6</v>
       </c>
       <c r="K46">
-        <f>ABS(I46-J46)</f>
-        <v>15.100000000000001</v>
+        <f>(I46-J46)</f>
+        <v>-15.100000000000001</v>
       </c>
       <c r="L46">
         <v>6.2</v>
@@ -4228,8 +4207,8 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="N46">
-        <f>ABS(L46-M46)</f>
-        <v>1.9999999999999991</v>
+        <f>(L46-M46)</f>
+        <v>-1.9999999999999991</v>
       </c>
       <c r="O46">
         <v>44</v>
@@ -4238,7 +4217,7 @@
         <v>41.9</v>
       </c>
       <c r="Q46">
-        <f>ABS(O46-P46)</f>
+        <f>(O46-P46)</f>
         <v>2.1000000000000014</v>
       </c>
       <c r="R46">
@@ -4248,7 +4227,7 @@
         <v>0.8</v>
       </c>
       <c r="T46">
-        <f>ABS(R46-S46)</f>
+        <f>(R46-S46)</f>
         <v>0</v>
       </c>
       <c r="U46">
@@ -4258,8 +4237,8 @@
         <v>4.8</v>
       </c>
       <c r="W46">
-        <f>ABS(U46-V46)</f>
-        <v>0.20000000000000018</v>
+        <f>(U46-V46)</f>
+        <v>-0.20000000000000018</v>
       </c>
       <c r="X46" t="s">
         <v>32</v>
@@ -4275,7 +4254,7 @@
       </c>
     </row>
     <row r="47" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A47" s="8"/>
+      <c r="A47" s="22"/>
       <c r="B47" t="s">
         <v>13</v>
       </c>
@@ -4286,7 +4265,7 @@
         <v>-93.4</v>
       </c>
       <c r="E47">
-        <f t="shared" ref="E47:E55" si="16">ABS(C47-D47)</f>
+        <f>(C47-D47)</f>
         <v>1.2000000000000028</v>
       </c>
       <c r="F47">
@@ -4296,7 +4275,7 @@
         <v>64.3</v>
       </c>
       <c r="H47">
-        <f t="shared" ref="H47:H55" si="17">ABS(F47-G47)</f>
+        <f>(F47-G47)</f>
         <v>2.7000000000000028</v>
       </c>
       <c r="I47">
@@ -4306,7 +4285,7 @@
         <v>15.8</v>
       </c>
       <c r="K47">
-        <f t="shared" ref="K47:K55" si="18">ABS(I47-J47)</f>
+        <f>(I47-J47)</f>
         <v>2.0999999999999979</v>
       </c>
       <c r="L47">
@@ -4316,8 +4295,8 @@
         <v>7.4</v>
       </c>
       <c r="N47">
-        <f t="shared" ref="N47:N55" si="19">ABS(L47-M47)</f>
-        <v>0.20000000000000018</v>
+        <f>(L47-M47)</f>
+        <v>-0.20000000000000018</v>
       </c>
       <c r="O47">
         <v>40</v>
@@ -4326,7 +4305,7 @@
         <v>37.4</v>
       </c>
       <c r="Q47">
-        <f t="shared" ref="Q47:Q55" si="20">ABS(O47-P47)</f>
+        <f>(O47-P47)</f>
         <v>2.6000000000000014</v>
       </c>
       <c r="R47">
@@ -4336,7 +4315,7 @@
         <v>0.5</v>
       </c>
       <c r="T47">
-        <f t="shared" ref="T47:T55" si="21">ABS(R47-S47)</f>
+        <f>(R47-S47)</f>
         <v>0.7</v>
       </c>
       <c r="U47">
@@ -4346,8 +4325,8 @@
         <v>5.4</v>
       </c>
       <c r="W47">
-        <f t="shared" ref="W47:W55" si="22">ABS(U47-V47)</f>
-        <v>0.30000000000000071</v>
+        <f>(U47-V47)</f>
+        <v>-0.30000000000000071</v>
       </c>
       <c r="X47" t="s">
         <v>32</v>
@@ -4360,7 +4339,7 @@
       </c>
     </row>
     <row r="48" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A48" s="8"/>
+      <c r="A48" s="22"/>
       <c r="B48" t="s">
         <v>14</v>
       </c>
@@ -4371,7 +4350,7 @@
         <v>-93.1</v>
       </c>
       <c r="E48">
-        <f t="shared" si="16"/>
+        <f>(C48-D48)</f>
         <v>0.89999999999999147</v>
       </c>
       <c r="F48">
@@ -4381,7 +4360,7 @@
         <v>65.3</v>
       </c>
       <c r="H48">
-        <f t="shared" si="17"/>
+        <f>(F48-G48)</f>
         <v>4.7000000000000028</v>
       </c>
       <c r="I48">
@@ -4391,7 +4370,7 @@
         <v>9.6999999999999993</v>
       </c>
       <c r="K48">
-        <f t="shared" si="18"/>
+        <f>(I48-J48)</f>
         <v>0.20000000000000107</v>
       </c>
       <c r="L48">
@@ -4401,8 +4380,8 @@
         <v>6.8</v>
       </c>
       <c r="N48">
-        <f t="shared" si="19"/>
-        <v>0.5</v>
+        <f>(L48-M48)</f>
+        <v>-0.5</v>
       </c>
       <c r="O48">
         <v>43</v>
@@ -4411,7 +4390,7 @@
         <v>38.700000000000003</v>
       </c>
       <c r="Q48">
-        <f t="shared" si="20"/>
+        <f>(O48-P48)</f>
         <v>4.2999999999999972</v>
       </c>
       <c r="R48">
@@ -4421,8 +4400,8 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="T48">
-        <f t="shared" si="21"/>
-        <v>2.2999999999999998</v>
+        <f>(R48-S48)</f>
+        <v>-2.2999999999999998</v>
       </c>
       <c r="U48">
         <v>4.7</v>
@@ -4431,8 +4410,8 @@
         <v>5.4</v>
       </c>
       <c r="W48">
-        <f t="shared" si="22"/>
-        <v>0.70000000000000018</v>
+        <f>(U48-V48)</f>
+        <v>-0.70000000000000018</v>
       </c>
       <c r="X48" t="s">
         <v>32</v>
@@ -4442,7 +4421,7 @@
       </c>
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A49" s="8"/>
+      <c r="A49" s="22"/>
       <c r="B49" t="s">
         <v>15</v>
       </c>
@@ -4453,7 +4432,7 @@
         <v>-93.4</v>
       </c>
       <c r="E49">
-        <f t="shared" si="16"/>
+        <f>(C49-D49)</f>
         <v>1.2000000000000028</v>
       </c>
       <c r="F49">
@@ -4463,8 +4442,8 @@
         <v>71.3</v>
       </c>
       <c r="H49">
-        <f t="shared" si="17"/>
-        <v>0.29999999999999716</v>
+        <f>(F49-G49)</f>
+        <v>-0.29999999999999716</v>
       </c>
       <c r="I49">
         <v>10.199999999999999</v>
@@ -4473,8 +4452,8 @@
         <v>11.7</v>
       </c>
       <c r="K49">
-        <f t="shared" si="18"/>
-        <v>1.5</v>
+        <f>(I49-J49)</f>
+        <v>-1.5</v>
       </c>
       <c r="L49">
         <v>6.2</v>
@@ -4483,8 +4462,8 @@
         <v>6.4</v>
       </c>
       <c r="N49">
-        <f t="shared" si="19"/>
-        <v>0.20000000000000018</v>
+        <f>(L49-M49)</f>
+        <v>-0.20000000000000018</v>
       </c>
       <c r="O49">
         <v>42</v>
@@ -4493,7 +4472,7 @@
         <v>41.7</v>
       </c>
       <c r="Q49">
-        <f t="shared" si="20"/>
+        <f>(O49-P49)</f>
         <v>0.29999999999999716</v>
       </c>
       <c r="R49">
@@ -4503,8 +4482,8 @@
         <v>3.3</v>
       </c>
       <c r="T49">
-        <f t="shared" si="21"/>
-        <v>0.69999999999999973</v>
+        <f>(R49-S49)</f>
+        <v>-0.69999999999999973</v>
       </c>
       <c r="U49">
         <v>4.9000000000000004</v>
@@ -4513,8 +4492,8 @@
         <v>5</v>
       </c>
       <c r="W49">
-        <f t="shared" si="22"/>
-        <v>9.9999999999999645E-2</v>
+        <f>(U49-V49)</f>
+        <v>-9.9999999999999645E-2</v>
       </c>
       <c r="X49" t="s">
         <v>32</v>
@@ -4524,7 +4503,7 @@
       </c>
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A50" s="8"/>
+      <c r="A50" s="22"/>
       <c r="B50" t="s">
         <v>16</v>
       </c>
@@ -4535,7 +4514,7 @@
         <v>-93.4</v>
       </c>
       <c r="E50">
-        <f t="shared" si="16"/>
+        <f>(C50-D50)</f>
         <v>1.2000000000000028</v>
       </c>
       <c r="F50">
@@ -4545,7 +4524,7 @@
         <v>71.5</v>
       </c>
       <c r="H50">
-        <f t="shared" si="17"/>
+        <f>(F50-G50)</f>
         <v>2.5</v>
       </c>
       <c r="I50">
@@ -4555,8 +4534,8 @@
         <v>13.6</v>
       </c>
       <c r="K50">
-        <f t="shared" si="18"/>
-        <v>8.6999999999999993</v>
+        <f>(I50-J50)</f>
+        <v>-8.6999999999999993</v>
       </c>
       <c r="L50">
         <v>5.7</v>
@@ -4565,8 +4544,8 @@
         <v>6.5</v>
       </c>
       <c r="N50">
-        <f t="shared" si="19"/>
-        <v>0.79999999999999982</v>
+        <f>(L50-M50)</f>
+        <v>-0.79999999999999982</v>
       </c>
       <c r="O50">
         <v>45</v>
@@ -4575,7 +4554,7 @@
         <v>44.5</v>
       </c>
       <c r="Q50">
-        <f t="shared" si="20"/>
+        <f>(O50-P50)</f>
         <v>0.5</v>
       </c>
       <c r="R50">
@@ -4585,7 +4564,7 @@
         <v>3.2</v>
       </c>
       <c r="T50">
-        <f t="shared" si="21"/>
+        <f>(R50-S50)</f>
         <v>1.5</v>
       </c>
       <c r="U50">
@@ -4595,7 +4574,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="W50">
-        <f t="shared" si="22"/>
+        <f>(U50-V50)</f>
         <v>0</v>
       </c>
       <c r="X50" t="s">
@@ -4606,7 +4585,7 @@
       </c>
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A51" s="8"/>
+      <c r="A51" s="22"/>
       <c r="B51" t="s">
         <v>17</v>
       </c>
@@ -4617,7 +4596,7 @@
         <v>-93.1</v>
       </c>
       <c r="E51">
-        <f t="shared" si="16"/>
+        <f>(C51-D51)</f>
         <v>0.89999999999999147</v>
       </c>
       <c r="F51">
@@ -4627,7 +4606,7 @@
         <v>71.5</v>
       </c>
       <c r="H51">
-        <f t="shared" si="17"/>
+        <f>(F51-G51)</f>
         <v>2.5</v>
       </c>
       <c r="I51">
@@ -4637,8 +4616,8 @@
         <v>12.4</v>
       </c>
       <c r="K51">
-        <f t="shared" si="18"/>
-        <v>3.3000000000000007</v>
+        <f>(I51-J51)</f>
+        <v>-3.3000000000000007</v>
       </c>
       <c r="L51">
         <v>6</v>
@@ -4647,8 +4626,8 @@
         <v>6.4</v>
       </c>
       <c r="N51">
-        <f t="shared" si="19"/>
-        <v>0.40000000000000036</v>
+        <f>(L51-M51)</f>
+        <v>-0.40000000000000036</v>
       </c>
       <c r="O51">
         <v>44</v>
@@ -4657,8 +4636,8 @@
         <v>45.5</v>
       </c>
       <c r="Q51">
-        <f t="shared" si="20"/>
-        <v>1.5</v>
+        <f>(O51-P51)</f>
+        <v>-1.5</v>
       </c>
       <c r="R51">
         <v>2.9</v>
@@ -4667,8 +4646,8 @@
         <v>4.7</v>
       </c>
       <c r="T51">
-        <f t="shared" si="21"/>
-        <v>1.8000000000000003</v>
+        <f>(R51-S51)</f>
+        <v>-1.8000000000000003</v>
       </c>
       <c r="U51">
         <v>4.7</v>
@@ -4677,7 +4656,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="W51">
-        <f t="shared" si="22"/>
+        <f>(U51-V51)</f>
         <v>0.10000000000000053</v>
       </c>
       <c r="X51" t="s">
@@ -4688,7 +4667,7 @@
       </c>
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A52" s="8"/>
+      <c r="A52" s="22"/>
       <c r="B52" t="s">
         <v>18</v>
       </c>
@@ -4699,7 +4678,7 @@
         <v>-93.4</v>
       </c>
       <c r="E52">
-        <f t="shared" si="16"/>
+        <f>(C52-D52)</f>
         <v>1.2000000000000028</v>
       </c>
       <c r="F52">
@@ -4709,7 +4688,7 @@
         <v>66.099999999999994</v>
       </c>
       <c r="H52">
-        <f t="shared" si="17"/>
+        <f>(F52-G52)</f>
         <v>7.9000000000000057</v>
       </c>
       <c r="I52">
@@ -4719,8 +4698,8 @@
         <v>21.3</v>
       </c>
       <c r="K52">
-        <f t="shared" si="18"/>
-        <v>14</v>
+        <f>(I52-J52)</f>
+        <v>-14</v>
       </c>
       <c r="L52">
         <v>5.9</v>
@@ -4729,8 +4708,8 @@
         <v>7.7</v>
       </c>
       <c r="N52">
-        <f t="shared" si="19"/>
-        <v>1.7999999999999998</v>
+        <f>(L52-M52)</f>
+        <v>-1.7999999999999998</v>
       </c>
       <c r="O52">
         <v>41</v>
@@ -4739,7 +4718,7 @@
         <v>41</v>
       </c>
       <c r="Q52">
-        <f t="shared" si="20"/>
+        <f>(O52-P52)</f>
         <v>0</v>
       </c>
       <c r="R52">
@@ -4749,8 +4728,8 @@
         <v>5.6</v>
       </c>
       <c r="T52">
-        <f t="shared" si="21"/>
-        <v>0.19999999999999929</v>
+        <f>(R52-S52)</f>
+        <v>-0.19999999999999929</v>
       </c>
       <c r="U52">
         <v>5.2</v>
@@ -4759,7 +4738,7 @@
         <v>5.2</v>
       </c>
       <c r="W52">
-        <f t="shared" si="22"/>
+        <f>(U52-V52)</f>
         <v>0</v>
       </c>
       <c r="X52" t="s">
@@ -4770,7 +4749,7 @@
       </c>
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A53" s="8"/>
+      <c r="A53" s="22"/>
       <c r="B53" t="s">
         <v>19</v>
       </c>
@@ -4781,7 +4760,7 @@
         <v>-93.4</v>
       </c>
       <c r="E53">
-        <f t="shared" si="16"/>
+        <f>(C53-D53)</f>
         <v>1.2000000000000028</v>
       </c>
       <c r="F53">
@@ -4791,7 +4770,7 @@
         <v>67.3</v>
       </c>
       <c r="H53">
-        <f t="shared" si="17"/>
+        <f>(F53-G53)</f>
         <v>5.7000000000000028</v>
       </c>
       <c r="I53">
@@ -4801,8 +4780,8 @@
         <v>23.7</v>
       </c>
       <c r="K53">
-        <f t="shared" si="18"/>
-        <v>18</v>
+        <f>(I53-J53)</f>
+        <v>-18</v>
       </c>
       <c r="L53">
         <v>5.8</v>
@@ -4811,8 +4790,8 @@
         <v>7.8</v>
       </c>
       <c r="N53">
-        <f t="shared" si="19"/>
-        <v>2</v>
+        <f>(L53-M53)</f>
+        <v>-2</v>
       </c>
       <c r="O53">
         <v>48</v>
@@ -4821,7 +4800,7 @@
         <v>45.5</v>
       </c>
       <c r="Q53">
-        <f t="shared" si="20"/>
+        <f>(O53-P53)</f>
         <v>2.5</v>
       </c>
       <c r="R53">
@@ -4831,7 +4810,7 @@
         <v>4.8</v>
       </c>
       <c r="T53">
-        <f t="shared" si="21"/>
+        <f>(R53-S53)</f>
         <v>0.5</v>
       </c>
       <c r="U53">
@@ -4841,8 +4820,8 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="W53">
-        <f t="shared" si="22"/>
-        <v>0.19999999999999929</v>
+        <f>(U53-V53)</f>
+        <v>-0.19999999999999929</v>
       </c>
       <c r="X53" t="s">
         <v>32</v>
@@ -4852,7 +4831,7 @@
       </c>
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A54" s="8"/>
+      <c r="A54" s="22"/>
       <c r="B54" t="s">
         <v>20</v>
       </c>
@@ -4863,7 +4842,7 @@
         <v>-92.8</v>
       </c>
       <c r="E54">
-        <f t="shared" si="16"/>
+        <f>(C54-D54)</f>
         <v>0.59999999999999432</v>
       </c>
       <c r="F54">
@@ -4873,7 +4852,7 @@
         <v>66.400000000000006</v>
       </c>
       <c r="H54">
-        <f t="shared" si="17"/>
+        <f>(F54-G54)</f>
         <v>5.5999999999999943</v>
       </c>
       <c r="I54">
@@ -4883,7 +4862,7 @@
         <v>7.5</v>
       </c>
       <c r="K54">
-        <f t="shared" si="18"/>
+        <f>(I54-J54)</f>
         <v>5.5</v>
       </c>
       <c r="L54">
@@ -4893,8 +4872,8 @@
         <v>6.5</v>
       </c>
       <c r="N54">
-        <f t="shared" si="19"/>
-        <v>9.9999999999999645E-2</v>
+        <f>(L54-M54)</f>
+        <v>-9.9999999999999645E-2</v>
       </c>
       <c r="O54">
         <v>45</v>
@@ -4903,7 +4882,7 @@
         <v>38.9</v>
       </c>
       <c r="Q54">
-        <f t="shared" si="20"/>
+        <f>(O54-P54)</f>
         <v>6.1000000000000014</v>
       </c>
       <c r="R54">
@@ -4913,7 +4892,7 @@
         <v>4</v>
       </c>
       <c r="T54">
-        <f t="shared" si="21"/>
+        <f>(R54-S54)</f>
         <v>0.70000000000000018</v>
       </c>
       <c r="U54">
@@ -4923,8 +4902,8 @@
         <v>5.3</v>
       </c>
       <c r="W54">
-        <f t="shared" si="22"/>
-        <v>0.59999999999999964</v>
+        <f>(U54-V54)</f>
+        <v>-0.59999999999999964</v>
       </c>
       <c r="X54" t="s">
         <v>32</v>
@@ -4934,7 +4913,7 @@
       </c>
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A55" s="8"/>
+      <c r="A55" s="22"/>
       <c r="B55" t="s">
         <v>21</v>
       </c>
@@ -4945,7 +4924,7 @@
         <v>-93.4</v>
       </c>
       <c r="E55">
-        <f t="shared" si="16"/>
+        <f>(C55-D55)</f>
         <v>1.2000000000000028</v>
       </c>
       <c r="F55">
@@ -4955,7 +4934,7 @@
         <v>65.8</v>
       </c>
       <c r="H55">
-        <f t="shared" si="17"/>
+        <f>(F55-G55)</f>
         <v>3.2000000000000028</v>
       </c>
       <c r="I55">
@@ -4965,7 +4944,7 @@
         <v>19.3</v>
       </c>
       <c r="K55">
-        <f t="shared" si="18"/>
+        <f>(I55-J55)</f>
         <v>1.5999999999999979</v>
       </c>
       <c r="L55">
@@ -4975,8 +4954,8 @@
         <v>7.5</v>
       </c>
       <c r="N55">
-        <f t="shared" si="19"/>
-        <v>9.9999999999999645E-2</v>
+        <f>(L55-M55)</f>
+        <v>-9.9999999999999645E-2</v>
       </c>
       <c r="O55">
         <v>45</v>
@@ -4985,7 +4964,7 @@
         <v>43.8</v>
       </c>
       <c r="Q55">
-        <f t="shared" si="20"/>
+        <f>(O55-P55)</f>
         <v>1.2000000000000028</v>
       </c>
       <c r="R55">
@@ -4995,8 +4974,8 @@
         <v>4.7</v>
       </c>
       <c r="T55">
-        <f t="shared" si="21"/>
-        <v>0.29999999999999982</v>
+        <f>(R55-S55)</f>
+        <v>-0.29999999999999982</v>
       </c>
       <c r="U55">
         <v>4.7</v>
@@ -5005,8 +4984,8 @@
         <v>4.8</v>
       </c>
       <c r="W55">
-        <f t="shared" si="22"/>
-        <v>9.9999999999999645E-2</v>
+        <f>(U55-V55)</f>
+        <v>-9.9999999999999645E-2</v>
       </c>
       <c r="X55" t="s">
         <v>32</v>
@@ -5016,7 +4995,7 @@
       </c>
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A56" s="8"/>
+      <c r="A56" s="22"/>
       <c r="B56" t="s">
         <v>22</v>
       </c>
@@ -5031,7 +5010,7 @@
       </c>
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A57" s="8" t="s">
+      <c r="A57" s="22" t="s">
         <v>30</v>
       </c>
       <c r="B57" t="s">
@@ -5081,7 +5060,7 @@
       </c>
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A58" s="8"/>
+      <c r="A58" s="22"/>
       <c r="B58" t="s">
         <v>22</v>
       </c>
@@ -5106,16 +5085,16 @@
         <v>41</v>
       </c>
       <c r="C59">
-        <f>AVERAGE(C2:C58)</f>
-        <v>-90.465263157894697</v>
+        <f>AVERAGE(C2:C11,C13:C22,C26:C31,C24,C35:C44,C33,C46:C55)</f>
+        <v>-90.399999999999963</v>
       </c>
       <c r="D59">
-        <f>AVERAGE(D2:D58)</f>
-        <v>-90.496428571428581</v>
+        <f>AVERAGE(D2:D55)</f>
+        <v>-90.492592592592587</v>
       </c>
       <c r="E59">
-        <f>AVERAGE(E2:E55)</f>
-        <v>1.0859259259259286</v>
+        <f>AVERAGE(E$2:E$11,E$13:E$22,E$26:E$31,E$24,E$33,E$35:E$44,E$46:E$55)</f>
+        <v>0.18750000000000147</v>
       </c>
       <c r="F59">
         <f>AVERAGE(F46:F55,F35:F44,F33,F26:F30,F24,F13:F22,F2:F11)</f>
@@ -5127,7 +5106,7 @@
       </c>
       <c r="H59">
         <f>AVERAGE(H35:H44,H33,H26:H30,H24,H13:H22,H2:H11,H46:H55)</f>
-        <v>4.480851063829788</v>
+        <v>-0.42553191489361641</v>
       </c>
       <c r="I59">
         <f>AVERAGE(I46:I55,I35:I44,I33,I26:I30,I24,I13:I22,I2:I11)</f>
@@ -5139,7 +5118,7 @@
       </c>
       <c r="K59">
         <f>AVERAGE(K35:K44,K33,K26:K30,K24,K13:K22,K2:K11,K46:K55)</f>
-        <v>3.3765957446808512</v>
+        <v>-1.2319148936170214</v>
       </c>
       <c r="L59">
         <f>AVERAGE(L46:L55,L35:L44,L33,L26:L30,L24,L13:L22,L2:L11)</f>
@@ -5151,7 +5130,7 @@
       </c>
       <c r="N59">
         <f>AVERAGE(N35:N44,N33,N26:N30,N24,N13:N22,N2:N11,N46:N55)</f>
-        <v>0.67021276595744661</v>
+        <v>9.5744680851063732E-2</v>
       </c>
       <c r="O59">
         <f>AVERAGE(O46:O55,O35:O44,O26:O31,O24,O13:O22,O2:O11)</f>
@@ -5163,7 +5142,7 @@
       </c>
       <c r="Q59">
         <f>AVERAGE(Q2:Q11,Q13:Q22,Q26:Q30,Q35:Q44,Q46:Q55)</f>
-        <v>2.1755555555555555</v>
+        <v>0.85111111111111171</v>
       </c>
       <c r="R59">
         <f>AVERAGE(R46:R55,R35:R44,R26:R31,R13:R22,R2:R11)</f>
@@ -5175,7 +5154,7 @@
       </c>
       <c r="T59">
         <f>AVERAGE(T2:T11,T13:T22,T26:T30,T35:T44,T46:T55,)</f>
-        <v>0.60217391304347834</v>
+        <v>0.19782608695652162</v>
       </c>
       <c r="U59">
         <f>AVERAGE(U46:U55,U35:U44,U26:U31,U13:U22,U2:U11)</f>
@@ -5187,12 +5166,12 @@
       </c>
       <c r="W59">
         <f>AVERAGE(W46:W55,W35:W44,W26:W30,W13:W22,W2:W11)</f>
-        <v>0.35777777777777781</v>
+        <v>3.7777777777777799E-2</v>
       </c>
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C60">
         <f>_xlfn.STDEV.S(C2:C55)</f>
@@ -5202,6 +5181,10 @@
         <f>_xlfn.STDEV.S(D2:D55)</f>
         <v>1.9083581654111135</v>
       </c>
+      <c r="E60">
+        <f>_xlfn.STDEV.S(E$2:E$11,E$13:E$22,E$26:E$31,E$24,E$33,E$35:E$44,E$46:E$55)</f>
+        <v>1.250808249331508</v>
+      </c>
       <c r="F60">
         <f>_xlfn.STDEV.S(F46:F55,F35:F44,F33,F26:F30,F24,F13:F22,F2:F11)</f>
         <v>11.535690504328544</v>
@@ -5210,6 +5193,10 @@
         <f>_xlfn.STDEV.S(G46:G55,G35:G44,G33,G26:G30,G24,G13:G22,G2:G11)</f>
         <v>8.8283366618302548</v>
       </c>
+      <c r="H60">
+        <f>_xlfn.STDEV.S(H$2:H$11,H$13:H$22,H$26:H$30,H$24,H$33,H$35:H$44,H$46:H$55)</f>
+        <v>5.9823460602700722</v>
+      </c>
       <c r="I60">
         <f>_xlfn.STDEV.S(I46:I55,I35:I44,I33,I26:I30,I24,I13:I22,I2:I11)</f>
         <v>6.8836121737603682</v>
@@ -5218,6 +5205,10 @@
         <f>_xlfn.STDEV.S(J46:J55,J35:J44,J33,J26:J30,J24,J13:J22,J2:J11)</f>
         <v>6.8464971766056566</v>
       </c>
+      <c r="K60">
+        <f>_xlfn.STDEV.S(K$2:K$11,K$13:K$22,K$26:K$30,K$24,K$33,K$35:K$44,K$46:K$55)</f>
+        <v>5.1505637674951883</v>
+      </c>
       <c r="L60">
         <f>_xlfn.STDEV.S(L46:L55,L35:L44,L33,L26:L30,L24,L13:L22,L2:L11)</f>
         <v>2.5636251506496563</v>
@@ -5226,6 +5217,10 @@
         <f>_xlfn.STDEV.S(M46:M55,M35:M44,M33,M26:M30,M24,M13:M22,M2:M11)</f>
         <v>2.1733521940730181</v>
       </c>
+      <c r="N60">
+        <f>_xlfn.STDEV.S(N$2:N$11,N$13:N$22,N$26:N$30,N$24,N$33,N$35:N$44,N$46:N$55)</f>
+        <v>1.0613685682847551</v>
+      </c>
       <c r="O60">
         <f>_xlfn.STDEV.S(O46:O55,O35:O44,O33,O26:O30,O24,O13:O22,O2:O11)</f>
         <v>7.4685874152879723</v>
@@ -5234,6 +5229,10 @@
         <f>_xlfn.STDEV.S(P46:P55,P35:P44,P33,P26:P30,P24,P13:P22,P2:P11)</f>
         <v>7.0226184068121107</v>
       </c>
+      <c r="Q60">
+        <f>_xlfn.STDEV.S(Q$2:Q$11,Q$13:Q$22,Q$26:Q$30,Q$35:Q$44,Q$46:Q$55)</f>
+        <v>2.8367412659777425</v>
+      </c>
       <c r="R60">
         <f>_xlfn.STDEV.S(R46:R55,R35:R44,R33,R26:R30,R24,R13:R22,R2:R11)</f>
         <v>2.6992105093410874</v>
@@ -5242,6 +5241,10 @@
         <f>_xlfn.STDEV.S(S46:S55,S35:S44,S33,S26:S30,S24,S13:S22,S2:S11)</f>
         <v>2.6006083398467177</v>
       </c>
+      <c r="T60">
+        <f>_xlfn.STDEV.S(T$2:T$11,T$13:T$22,T$26:T$30,T$35:T$44,T$46:T$55)</f>
+        <v>0.91241161188081654</v>
+      </c>
       <c r="U60">
         <f>_xlfn.STDEV.S(U46:U55,U35:U44,U33,U26:U30,U24,U13:U22,U2:U11)</f>
         <v>1.5183157867462314</v>
@@ -5250,6 +5253,10 @@
         <f>_xlfn.STDEV.S(V46:V55,V35:V44,V33,V26:V30,V24,V13:V22,V2:V11)</f>
         <v>1.5102701144783328</v>
       </c>
+      <c r="W60">
+        <f>_xlfn.STDEV.S(W$2:W$11,W$13:W$22,W$26:W$30,W$35:W$44,W$46:W$55)</f>
+        <v>0.69586077790188916</v>
+      </c>
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
@@ -5259,18 +5266,18 @@
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
-      <c r="B63" s="8"/>
-      <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="8"/>
-      <c r="F63" s="8"/>
-      <c r="G63" s="8"/>
-      <c r="H63" s="8"/>
-      <c r="I63" s="8"/>
-    </row>
-    <row r="64" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="B63" s="22"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="22"/>
+      <c r="E63" s="22"/>
+      <c r="F63" s="22"/>
+      <c r="G63" s="22"/>
+      <c r="H63" s="22"/>
+      <c r="I63" s="22"/>
+    </row>
+    <row r="64" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B64" s="7" t="s">
         <v>42</v>
@@ -5279,16 +5286,16 @@
         <v>43</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
@@ -5297,7 +5304,7 @@
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B65" s="5">
         <f>AVERAGE(C2:C58)</f>
@@ -5316,12 +5323,12 @@
         <v>1.9083581654111135</v>
       </c>
       <c r="F65" s="4">
-        <f t="shared" ref="F65:F71" si="23">ABS(B65-C65)</f>
+        <f>(B65-C65)</f>
         <v>2.7329434697890065E-2</v>
       </c>
       <c r="G65" s="5">
-        <f>E59</f>
-        <v>1.0859259259259286</v>
+        <f>E60</f>
+        <v>1.250808249331508</v>
       </c>
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
@@ -5349,12 +5356,12 @@
         <v>8.8283366618302548</v>
       </c>
       <c r="F66" s="4">
-        <f t="shared" si="23"/>
-        <v>0.42553191489362518</v>
+        <f>(B66-C66)</f>
+        <v>-0.42553191489362518</v>
       </c>
       <c r="G66" s="4">
-        <f>H59</f>
-        <v>4.480851063829788</v>
+        <f>H60</f>
+        <v>5.9823460602700722</v>
       </c>
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
@@ -5389,12 +5396,12 @@
         <v>6.8464971766056566</v>
       </c>
       <c r="F67" s="4">
-        <f t="shared" si="23"/>
-        <v>1.2319148936170237</v>
+        <f>(B67-C67)</f>
+        <v>-1.2319148936170237</v>
       </c>
       <c r="G67" s="4">
-        <f>K59</f>
-        <v>3.3765957446808512</v>
+        <f>K60</f>
+        <v>5.1505637674951883</v>
       </c>
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
@@ -5410,7 +5417,7 @@
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B68" s="4">
         <f>L59</f>
@@ -5429,12 +5436,12 @@
         <v>2.1733521940730181</v>
       </c>
       <c r="F68" s="4">
-        <f t="shared" si="23"/>
+        <f>(B68-C68)</f>
         <v>9.5744680851065134E-2</v>
       </c>
       <c r="G68" s="4">
-        <f>N59</f>
-        <v>0.67021276595744661</v>
+        <f>N60</f>
+        <v>1.0613685682847551</v>
       </c>
       <c r="H68" s="4"/>
       <c r="I68" s="4"/>
@@ -5469,12 +5476,12 @@
         <v>7.0226184068121107</v>
       </c>
       <c r="F69" s="4">
-        <f t="shared" si="23"/>
+        <f>(B69-C69)</f>
         <v>0.94999999999999574</v>
       </c>
       <c r="G69" s="4">
-        <f>Q59</f>
-        <v>2.1755555555555555</v>
+        <f>Q60</f>
+        <v>2.8367412659777425</v>
       </c>
       <c r="H69" s="4"/>
       <c r="I69" s="4"/>
@@ -5509,12 +5516,12 @@
         <v>2.6006083398467177</v>
       </c>
       <c r="F70" s="4">
-        <f t="shared" si="23"/>
+        <f>(B70-C70)</f>
         <v>0.24289855072463906</v>
       </c>
       <c r="G70" s="4">
-        <f>T59</f>
-        <v>0.60217391304347834</v>
+        <f>T60</f>
+        <v>0.91241161188081654</v>
       </c>
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
@@ -5530,7 +5537,7 @@
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B71" s="4">
         <f>U59</f>
@@ -5549,12 +5556,12 @@
         <v>1.5102701144783328</v>
       </c>
       <c r="F71" s="4">
-        <f t="shared" si="23"/>
+        <f>(B71-C71)</f>
         <v>0.11323671497584531</v>
       </c>
       <c r="G71" s="4">
-        <f>W59</f>
-        <v>0.35777777777777781</v>
+        <f>W60</f>
+        <v>0.69586077790188916</v>
       </c>
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
@@ -5888,390 +5895,6 @@
     <mergeCell ref="A46:A56"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="N2:N44">
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:Q11">
-    <cfRule type="colorScale" priority="29">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q13:Q22">
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q24:Q33">
-    <cfRule type="colorScale" priority="27">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q35:Q44">
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T2:T11">
-    <cfRule type="colorScale" priority="25">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T13:T22">
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T26:T34">
-    <cfRule type="colorScale" priority="23">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T35:T44">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W2:W11">
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W13:W22">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W26:W34">
-    <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W35:W44">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W46:W55">
-    <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T46:T55">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q46:Q55">
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N46:N55">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K46:K55">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H46:H55">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46:E55">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F65:F71">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G65:G71">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H55">
-    <cfRule type="colorScale" priority="39">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K55">
-    <cfRule type="colorScale" priority="41">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N55">
-    <cfRule type="colorScale" priority="43">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:Q55">
-    <cfRule type="colorScale" priority="45">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T2:T55">
-    <cfRule type="colorScale" priority="47">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E45">
-    <cfRule type="colorScale" priority="50">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E55">
-    <cfRule type="colorScale" priority="53">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W2:W55">
-    <cfRule type="colorScale" priority="59">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H45">
-    <cfRule type="colorScale" priority="60">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K45">
-    <cfRule type="colorScale" priority="61">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -6283,21 +5906,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59252014-11D9-4293-BD22-C0D7CF47D175}">
-  <dimension ref="A1:AZ40"/>
+  <dimension ref="A1:AZ39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y29" sqref="A1:Y29"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.5703125" customWidth="1"/>
     <col min="11" max="11" width="16.7109375" customWidth="1"/>
     <col min="12" max="12" width="14.28515625" customWidth="1"/>
     <col min="13" max="13" width="17.140625" customWidth="1"/>
     <col min="14" max="14" width="16.7109375" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="8" bestFit="1" customWidth="1"/>
@@ -6347,7 +5973,7 @@
         <v>5</v>
       </c>
       <c r="N1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="O1" t="s">
         <v>6</v>
@@ -6374,7 +6000,7 @@
         <v>8</v>
       </c>
       <c r="W1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="X1" t="s">
         <v>9</v>
@@ -6384,60 +6010,58 @@
       </c>
     </row>
     <row r="2" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
-        <v>52</v>
-      </c>
+      <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="Q2" s="1"/>
       <c r="R2" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="T2" s="1"/>
       <c r="U2" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="W2" s="1"/>
       <c r="X2" s="1" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
@@ -6468,125 +6092,163 @@
       <c r="AZ2" s="1"/>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O3" t="s">
-        <v>6</v>
-      </c>
-      <c r="P3" t="s">
-        <v>6</v>
-      </c>
-      <c r="R3" t="s">
-        <v>7</v>
-      </c>
-      <c r="S3" t="s">
-        <v>7</v>
-      </c>
-      <c r="U3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V3" t="s">
-        <v>8</v>
+      <c r="A3" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>-90</v>
+      </c>
+      <c r="D3">
+        <v>-94.3</v>
+      </c>
+      <c r="E3">
+        <f>C3-D3</f>
+        <v>4.2999999999999972</v>
+      </c>
+      <c r="F3">
+        <v>64</v>
+      </c>
+      <c r="G3">
+        <v>67</v>
+      </c>
+      <c r="H3">
+        <f>(F3-G3)</f>
+        <v>-3</v>
+      </c>
+      <c r="I3">
+        <v>11.2</v>
+      </c>
+      <c r="J3">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="K3">
+        <f>(I3-J3)</f>
+        <v>6.2999999999999989</v>
+      </c>
+      <c r="L3">
+        <v>7.1</v>
+      </c>
+      <c r="M3">
+        <v>6.3</v>
+      </c>
+      <c r="N3">
+        <f>L3-M3</f>
+        <v>0.79999999999999982</v>
+      </c>
+      <c r="O3">
+        <v>32</v>
+      </c>
+      <c r="P3">
+        <v>31</v>
+      </c>
+      <c r="Q3">
+        <f>(O3-P3)</f>
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>2.9</v>
+      </c>
+      <c r="S3">
+        <v>3.5</v>
+      </c>
+      <c r="T3">
+        <f>(R3-S3)</f>
+        <v>-0.60000000000000009</v>
+      </c>
+      <c r="U3">
+        <v>6.4</v>
+      </c>
+      <c r="V3">
+        <v>6.7</v>
+      </c>
+      <c r="W3">
+        <f>(U3-V3)</f>
+        <v>-0.29999999999999982</v>
       </c>
       <c r="X3" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="Y3" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>10</v>
-      </c>
+      <c r="A4" s="22"/>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C4">
-        <v>-90</v>
+        <v>-90.1</v>
       </c>
       <c r="D4">
         <v>-94.3</v>
       </c>
       <c r="E4">
-        <f>ABS(C4-D4)</f>
-        <v>4.2999999999999972</v>
+        <f t="shared" ref="E4:E26" si="0">C4-D4</f>
+        <v>4.2000000000000028</v>
       </c>
       <c r="F4">
         <v>64</v>
       </c>
       <c r="G4">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H4">
-        <f>ABS(F4-G4)</f>
-        <v>3</v>
+        <f t="shared" ref="H4:H25" si="1">(F4-G4)</f>
+        <v>-7</v>
       </c>
       <c r="I4">
-        <v>11.2</v>
+        <v>7.2</v>
       </c>
       <c r="J4">
-        <v>4.9000000000000004</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="K4">
-        <f>ABS(I4-J4)</f>
-        <v>6.2999999999999989</v>
+        <f t="shared" ref="K4:K12" si="2">(I4-J4)</f>
+        <v>2.8</v>
       </c>
       <c r="L4">
+        <v>6.7</v>
+      </c>
+      <c r="M4">
+        <v>5.9</v>
+      </c>
+      <c r="N4">
+        <f>(L4-M4)</f>
+        <v>0.79999999999999982</v>
+      </c>
+      <c r="O4">
+        <v>31</v>
+      </c>
+      <c r="P4">
+        <v>29</v>
+      </c>
+      <c r="Q4">
+        <f>(O4-P4)</f>
+        <v>2</v>
+      </c>
+      <c r="R4">
+        <v>2.7</v>
+      </c>
+      <c r="S4">
+        <v>2.4</v>
+      </c>
+      <c r="T4">
+        <f>(R4-S4)</f>
+        <v>0.30000000000000027</v>
+      </c>
+      <c r="U4">
+        <v>6.7</v>
+      </c>
+      <c r="V4">
         <v>7.1</v>
       </c>
-      <c r="M4">
-        <v>6.3</v>
-      </c>
-      <c r="N4">
-        <f>ABS(L4-M4)</f>
-        <v>0.79999999999999982</v>
-      </c>
-      <c r="O4">
-        <v>32</v>
-      </c>
-      <c r="P4">
-        <v>31</v>
-      </c>
-      <c r="Q4">
-        <f>ABS(O4-P4)</f>
-        <v>1</v>
-      </c>
-      <c r="R4">
-        <v>2.9</v>
-      </c>
-      <c r="S4">
-        <v>3.5</v>
-      </c>
-      <c r="T4">
-        <f>ABS(R4-S4)</f>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="U4">
-        <v>6.4</v>
-      </c>
-      <c r="V4">
-        <v>6.7</v>
-      </c>
       <c r="W4">
-        <f>ABS(U4-V4)</f>
-        <v>0.29999999999999982</v>
+        <f>(U4-V4)</f>
+        <v>-0.39999999999999947</v>
       </c>
       <c r="X4" t="s">
         <v>32</v>
@@ -6596,9 +6258,9 @@
       </c>
     </row>
     <row r="5" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
+      <c r="A5" s="22"/>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5">
         <v>-90.1</v>
@@ -6607,68 +6269,68 @@
         <v>-94.3</v>
       </c>
       <c r="E5">
-        <f t="shared" ref="E5:E47" si="0">ABS(C5-D5)</f>
+        <f t="shared" si="0"/>
         <v>4.2000000000000028</v>
       </c>
       <c r="F5">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G5">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H5">
-        <f t="shared" ref="H5:H27" si="1">ABS(F5-G5)</f>
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>7.2</v>
+        <v>5.3</v>
       </c>
       <c r="J5">
-        <v>4.4000000000000004</v>
+        <v>3.4</v>
       </c>
       <c r="K5">
-        <f t="shared" ref="K5:K26" si="2">ABS(I5-J5)</f>
-        <v>2.8</v>
+        <f t="shared" si="2"/>
+        <v>1.9</v>
       </c>
       <c r="L5">
-        <v>6.7</v>
+        <v>5.8</v>
       </c>
       <c r="M5">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="N5">
-        <f t="shared" ref="N5:N26" si="3">ABS(L5-M5)</f>
-        <v>0.79999999999999982</v>
+        <f>(L5-M5)</f>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="P5">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Q5">
-        <f t="shared" ref="Q5:Q26" si="4">ABS(O5-P5)</f>
-        <v>2</v>
+        <f>(O5-P5)</f>
+        <v>-3</v>
       </c>
       <c r="R5">
-        <v>2.7</v>
+        <v>10.8</v>
       </c>
       <c r="S5">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="T5">
-        <f t="shared" ref="T5:T26" si="5">ABS(R5-S5)</f>
-        <v>0.30000000000000027</v>
+        <f>(R5-S5)</f>
+        <v>6.8000000000000007</v>
       </c>
       <c r="U5">
-        <v>6.7</v>
+        <v>7.7</v>
       </c>
       <c r="V5">
-        <v>7.1</v>
+        <v>6.5</v>
       </c>
       <c r="W5">
-        <f t="shared" ref="W5:W26" si="6">ABS(U5-V5)</f>
-        <v>0.39999999999999947</v>
+        <f>(U5-V5)</f>
+        <v>1.2000000000000002</v>
       </c>
       <c r="X5" t="s">
         <v>32</v>
@@ -6678,9 +6340,9 @@
       </c>
     </row>
     <row r="6" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
+      <c r="A6" s="22"/>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6">
         <v>-90.1</v>
@@ -6693,64 +6355,64 @@
         <v>4.2000000000000028</v>
       </c>
       <c r="F6">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G6">
         <v>72</v>
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6">
-        <v>5.3</v>
+        <v>7.5</v>
       </c>
       <c r="J6">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="K6">
         <f t="shared" si="2"/>
-        <v>1.9</v>
+        <v>5.7</v>
       </c>
       <c r="L6">
         <v>5.8</v>
       </c>
       <c r="M6">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="N6">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>(L6-M6)</f>
+        <v>0.20000000000000018</v>
       </c>
       <c r="O6">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="P6">
         <v>32</v>
       </c>
       <c r="Q6">
-        <f t="shared" si="4"/>
-        <v>3</v>
+        <f>(O6-P6)</f>
+        <v>1</v>
       </c>
       <c r="R6">
-        <v>10.8</v>
+        <v>4</v>
       </c>
       <c r="S6">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="T6">
-        <f t="shared" si="5"/>
-        <v>6.8000000000000007</v>
+        <f>(R6-S6)</f>
+        <v>-0.79999999999999982</v>
       </c>
       <c r="U6">
-        <v>7.7</v>
+        <v>6.3</v>
       </c>
       <c r="V6">
         <v>6.5</v>
       </c>
       <c r="W6">
-        <f t="shared" si="6"/>
-        <v>1.2000000000000002</v>
+        <f>(U6-V6)</f>
+        <v>-0.20000000000000018</v>
       </c>
       <c r="X6" t="s">
         <v>32</v>
@@ -6760,79 +6422,79 @@
       </c>
     </row>
     <row r="7" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
+      <c r="A7" s="22"/>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7">
-        <v>-90.1</v>
+        <v>-90.7</v>
       </c>
       <c r="D7">
-        <v>-94.3</v>
+        <v>-94.4</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>4.2000000000000028</v>
+        <v>3.7000000000000028</v>
       </c>
       <c r="F7">
         <v>74</v>
       </c>
       <c r="G7">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>7.5</v>
+        <v>9.4</v>
       </c>
       <c r="J7">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="K7">
         <f t="shared" si="2"/>
-        <v>5.7</v>
+        <v>6.9</v>
       </c>
       <c r="L7">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="M7">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="N7">
-        <f t="shared" si="3"/>
-        <v>0.20000000000000018</v>
+        <f>(L7-M7)</f>
+        <v>0.5</v>
       </c>
       <c r="O7">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="P7">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="Q7">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f>(O7-P7)</f>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>4</v>
+        <v>0.3</v>
       </c>
       <c r="S7">
+        <v>2.9</v>
+      </c>
+      <c r="T7">
+        <f>(R7-S7)</f>
+        <v>-2.6</v>
+      </c>
+      <c r="U7">
         <v>4.8</v>
       </c>
-      <c r="T7">
-        <f t="shared" si="5"/>
-        <v>0.79999999999999982</v>
-      </c>
-      <c r="U7">
-        <v>6.3</v>
-      </c>
       <c r="V7">
-        <v>6.5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="W7">
-        <f t="shared" si="6"/>
-        <v>0.20000000000000018</v>
+        <f>(U7-V7)</f>
+        <v>-0.10000000000000053</v>
       </c>
       <c r="X7" t="s">
         <v>32</v>
@@ -6842,79 +6504,79 @@
       </c>
     </row>
     <row r="8" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
+      <c r="A8" s="22"/>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8">
-        <v>-90.7</v>
+        <v>-90.1</v>
       </c>
       <c r="D8">
-        <v>-94.4</v>
+        <v>-94.3</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>3.7000000000000028</v>
+        <v>4.2000000000000028</v>
       </c>
       <c r="F8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8">
-        <v>9.4</v>
+        <v>10.1</v>
       </c>
       <c r="J8">
-        <v>2.5</v>
+        <v>8.5</v>
       </c>
       <c r="K8">
         <f t="shared" si="2"/>
-        <v>6.9</v>
+        <v>1.5999999999999996</v>
       </c>
       <c r="L8">
         <v>6</v>
       </c>
       <c r="M8">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="N8">
-        <f t="shared" si="3"/>
-        <v>0.5</v>
+        <f>(L8-M8)</f>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="P8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q8">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>(O8-P8)</f>
+        <v>3</v>
       </c>
       <c r="R8">
-        <v>0.3</v>
+        <v>1.8</v>
       </c>
       <c r="S8">
         <v>2.9</v>
       </c>
       <c r="T8">
-        <f t="shared" si="5"/>
-        <v>2.6</v>
+        <f>(R8-S8)</f>
+        <v>-1.0999999999999999</v>
       </c>
       <c r="U8">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="V8">
-        <v>4.9000000000000004</v>
+        <v>5</v>
       </c>
       <c r="W8">
-        <f t="shared" si="6"/>
-        <v>0.10000000000000053</v>
+        <f>(U8-V8)</f>
+        <v>-0.29999999999999982</v>
       </c>
       <c r="X8" t="s">
         <v>32</v>
@@ -6924,9 +6586,9 @@
       </c>
     </row>
     <row r="9" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
+      <c r="A9" s="22"/>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9">
         <v>-90.1</v>
@@ -6942,61 +6604,61 @@
         <v>75</v>
       </c>
       <c r="G9">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>10.1</v>
+        <v>25.3</v>
       </c>
       <c r="J9">
-        <v>8.5</v>
+        <v>12.1</v>
       </c>
       <c r="K9">
         <f t="shared" si="2"/>
-        <v>1.5999999999999996</v>
+        <v>13.200000000000001</v>
       </c>
       <c r="L9">
-        <v>6</v>
+        <v>7.1</v>
       </c>
       <c r="M9">
         <v>6</v>
       </c>
       <c r="N9">
-        <f t="shared" si="3"/>
+        <f>(L9-M9)</f>
+        <v>1.0999999999999996</v>
+      </c>
+      <c r="O9">
+        <v>42</v>
+      </c>
+      <c r="P9">
+        <v>42</v>
+      </c>
+      <c r="Q9">
+        <f>(O9-P9)</f>
         <v>0</v>
       </c>
-      <c r="O9">
-        <v>44</v>
-      </c>
-      <c r="P9">
-        <v>41</v>
-      </c>
-      <c r="Q9">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
       <c r="R9">
-        <v>1.8</v>
+        <v>4.2</v>
       </c>
       <c r="S9">
-        <v>2.9</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="T9">
-        <f t="shared" si="5"/>
-        <v>1.0999999999999999</v>
+        <f>(R9-S9)</f>
+        <v>-0.39999999999999947</v>
       </c>
       <c r="U9">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="V9">
         <v>5</v>
       </c>
       <c r="W9">
-        <f t="shared" si="6"/>
-        <v>0.29999999999999982</v>
+        <f>(U9-V9)</f>
+        <v>0</v>
       </c>
       <c r="X9" t="s">
         <v>32</v>
@@ -7006,78 +6668,78 @@
       </c>
     </row>
     <row r="10" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
+      <c r="A10" s="22"/>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10">
-        <v>-90.1</v>
+        <v>-90.7</v>
       </c>
       <c r="D10">
-        <v>-94.3</v>
+        <v>-94.7</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>4.2000000000000028</v>
+        <v>4</v>
       </c>
       <c r="F10">
         <v>75</v>
       </c>
       <c r="G10">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10">
-        <v>25.3</v>
+        <v>13.8</v>
       </c>
       <c r="J10">
-        <v>12.1</v>
+        <v>22.5</v>
       </c>
       <c r="K10">
         <f t="shared" si="2"/>
-        <v>13.200000000000001</v>
+        <v>-8.6999999999999993</v>
       </c>
       <c r="L10">
+        <v>6.2</v>
+      </c>
+      <c r="M10">
         <v>7.1</v>
       </c>
-      <c r="M10">
-        <v>6</v>
-      </c>
       <c r="N10">
-        <f t="shared" si="3"/>
-        <v>1.0999999999999996</v>
+        <f>(L10-M10)</f>
+        <v>-0.89999999999999947</v>
       </c>
       <c r="O10">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="P10">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q10">
-        <f t="shared" si="4"/>
+        <f>(O10-P10)</f>
         <v>0</v>
       </c>
       <c r="R10">
-        <v>4.2</v>
+        <v>5.6</v>
       </c>
       <c r="S10">
-        <v>4.5999999999999996</v>
+        <v>5.7</v>
       </c>
       <c r="T10">
-        <f t="shared" si="5"/>
-        <v>0.39999999999999947</v>
+        <f>(R10-S10)</f>
+        <v>-0.10000000000000053</v>
       </c>
       <c r="U10">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="V10">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="W10">
-        <f t="shared" si="6"/>
+        <f>(U10-V10)</f>
         <v>0</v>
       </c>
       <c r="X10" t="s">
@@ -7088,80 +6750,80 @@
       </c>
     </row>
     <row r="11" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
+      <c r="A11" s="22"/>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11">
         <v>-90.7</v>
       </c>
       <c r="D11">
-        <v>-94.7</v>
+        <v>-94.3</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3.5999999999999943</v>
       </c>
       <c r="F11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G11">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>13.8</v>
+        <v>10.9</v>
       </c>
       <c r="J11">
-        <v>22.5</v>
+        <v>7.1</v>
       </c>
       <c r="K11">
         <f t="shared" si="2"/>
-        <v>8.6999999999999993</v>
+        <v>3.8000000000000007</v>
       </c>
       <c r="L11">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="M11">
-        <v>7.1</v>
+        <v>5.7</v>
       </c>
       <c r="N11">
-        <f t="shared" si="3"/>
+        <f>(L11-M11)</f>
+        <v>0.20000000000000018</v>
+      </c>
+      <c r="O11">
+        <v>42</v>
+      </c>
+      <c r="P11">
+        <v>41</v>
+      </c>
+      <c r="Q11">
+        <f>(O11-P11)</f>
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>7.3</v>
+      </c>
+      <c r="S11">
+        <v>6.4</v>
+      </c>
+      <c r="T11">
+        <f>(R11-S11)</f>
         <v>0.89999999999999947</v>
       </c>
-      <c r="O11">
-        <v>44</v>
-      </c>
-      <c r="P11">
-        <v>44</v>
-      </c>
-      <c r="Q11">
-        <f t="shared" si="4"/>
+      <c r="U11">
+        <v>5.2</v>
+      </c>
+      <c r="V11">
+        <v>5.2</v>
+      </c>
+      <c r="W11">
+        <f>(U11-V11)</f>
         <v>0</v>
       </c>
-      <c r="R11">
-        <v>5.6</v>
-      </c>
-      <c r="S11">
-        <v>5.7</v>
-      </c>
-      <c r="T11">
-        <f t="shared" si="5"/>
-        <v>0.10000000000000053</v>
-      </c>
-      <c r="U11">
-        <v>4.8</v>
-      </c>
-      <c r="V11">
-        <v>4.8</v>
-      </c>
-      <c r="W11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
       <c r="X11" t="s">
         <v>32</v>
       </c>
@@ -7170,78 +6832,78 @@
       </c>
     </row>
     <row r="12" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
+      <c r="A12" s="22"/>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12">
-        <v>-90.7</v>
+        <v>-90</v>
       </c>
       <c r="D12">
         <v>-94.3</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>3.5999999999999943</v>
+        <v>4.2999999999999972</v>
       </c>
       <c r="F12">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G12">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I12">
-        <v>10.9</v>
+        <v>20</v>
       </c>
       <c r="J12">
-        <v>7.1</v>
+        <v>13.3</v>
       </c>
       <c r="K12">
         <f t="shared" si="2"/>
-        <v>3.8000000000000007</v>
+        <v>6.6999999999999993</v>
       </c>
       <c r="L12">
-        <v>5.9</v>
+        <v>6.7</v>
       </c>
       <c r="M12">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
       <c r="N12">
-        <f t="shared" si="3"/>
-        <v>0.20000000000000018</v>
+        <f>(L12-M12)</f>
+        <v>0.5</v>
       </c>
       <c r="O12">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="P12">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="Q12">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f>(O12-P12)</f>
+        <v>0</v>
       </c>
       <c r="R12">
-        <v>7.3</v>
+        <v>12.7</v>
       </c>
       <c r="S12">
-        <v>6.4</v>
+        <v>12.6</v>
       </c>
       <c r="T12">
-        <f t="shared" si="5"/>
-        <v>0.89999999999999947</v>
+        <f>(R12-S12)</f>
+        <v>9.9999999999999645E-2</v>
       </c>
       <c r="U12">
-        <v>5.2</v>
+        <v>6.6</v>
       </c>
       <c r="V12">
-        <v>5.2</v>
+        <v>6.6</v>
       </c>
       <c r="W12">
-        <f t="shared" si="6"/>
+        <f>(U12-V12)</f>
         <v>0</v>
       </c>
       <c r="X12" t="s">
@@ -7252,79 +6914,19 @@
       </c>
     </row>
     <row r="13" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
+      <c r="A13" s="22"/>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13">
-        <v>-90</v>
+        <v>-90.3</v>
       </c>
       <c r="D13">
-        <v>-94.3</v>
+        <v>-94.4</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>4.2999999999999972</v>
-      </c>
-      <c r="F13">
-        <v>74</v>
-      </c>
-      <c r="G13">
-        <v>74</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>20</v>
-      </c>
-      <c r="J13">
-        <v>13.3</v>
-      </c>
-      <c r="K13">
-        <f t="shared" si="2"/>
-        <v>6.6999999999999993</v>
-      </c>
-      <c r="L13">
-        <v>6.7</v>
-      </c>
-      <c r="M13">
-        <v>6.2</v>
-      </c>
-      <c r="N13">
-        <f t="shared" si="3"/>
-        <v>0.5</v>
-      </c>
-      <c r="O13">
-        <v>35</v>
-      </c>
-      <c r="P13">
-        <v>35</v>
-      </c>
-      <c r="Q13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>12.7</v>
-      </c>
-      <c r="S13">
-        <v>12.6</v>
-      </c>
-      <c r="T13">
-        <f t="shared" si="5"/>
-        <v>9.9999999999999645E-2</v>
-      </c>
-      <c r="U13">
-        <v>6.6</v>
-      </c>
-      <c r="V13">
-        <v>6.6</v>
-      </c>
-      <c r="W13">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>4.1000000000000085</v>
       </c>
       <c r="X13" t="s">
         <v>32</v>
@@ -7334,82 +6936,82 @@
       </c>
     </row>
     <row r="14" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
+      <c r="A14" s="22" t="s">
+        <v>24</v>
+      </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C14">
-        <v>-90.3</v>
+        <v>-88.5</v>
       </c>
       <c r="D14">
         <v>-94.4</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>4.1000000000000085</v>
+        <v>5.9000000000000057</v>
+      </c>
+      <c r="F14">
+        <v>34</v>
+      </c>
+      <c r="G14">
+        <v>62</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>-28</v>
+      </c>
+      <c r="I14">
+        <v>10.7</v>
+      </c>
+      <c r="J14">
+        <v>0.6</v>
+      </c>
+      <c r="K14">
+        <f>(I14-J14)</f>
+        <v>10.1</v>
+      </c>
+      <c r="L14">
+        <v>13.4</v>
+      </c>
+      <c r="M14">
+        <v>6.5</v>
+      </c>
+      <c r="N14">
+        <f>(L14-M14)</f>
+        <v>6.9</v>
+      </c>
+      <c r="P14">
+        <v>48</v>
+      </c>
+      <c r="S14">
+        <v>3.8</v>
+      </c>
+      <c r="V14">
+        <v>4.4000000000000004</v>
       </c>
       <c r="X14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y14" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>24</v>
-      </c>
+      <c r="A15" s="22"/>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C15">
         <v>-88.5</v>
       </c>
       <c r="D15">
-        <v>-94.4</v>
+        <v>-94.6</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>5.9000000000000057</v>
-      </c>
-      <c r="F15">
-        <v>34</v>
-      </c>
-      <c r="G15">
-        <v>62</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="I15">
-        <v>10.7</v>
-      </c>
-      <c r="J15">
-        <v>0.6</v>
-      </c>
-      <c r="K15">
-        <f t="shared" si="2"/>
-        <v>10.1</v>
-      </c>
-      <c r="L15">
-        <v>13.4</v>
-      </c>
-      <c r="M15">
-        <v>6.5</v>
-      </c>
-      <c r="N15">
-        <f t="shared" si="3"/>
-        <v>6.9</v>
-      </c>
-      <c r="P15">
-        <v>48</v>
-      </c>
-      <c r="S15">
-        <v>3.8</v>
-      </c>
-      <c r="V15">
-        <v>4.4000000000000004</v>
+        <v>6.0999999999999943</v>
       </c>
       <c r="X15" t="s">
         <v>31</v>
@@ -7419,33 +7021,93 @@
       </c>
     </row>
     <row r="16" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
+      <c r="A16" s="22" t="s">
+        <v>23</v>
+      </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C16">
-        <v>-88.5</v>
+        <v>-87.7</v>
       </c>
       <c r="D16">
-        <v>-94.6</v>
+        <v>-88.8</v>
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>6.0999999999999943</v>
+        <v>1.0999999999999943</v>
+      </c>
+      <c r="F16">
+        <v>57</v>
+      </c>
+      <c r="G16">
+        <v>59</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+      <c r="I16">
+        <v>0.2</v>
+      </c>
+      <c r="J16">
+        <v>0.1</v>
+      </c>
+      <c r="K16">
+        <f>(I16-J16)</f>
+        <v>0.1</v>
+      </c>
+      <c r="L16">
+        <v>7</v>
+      </c>
+      <c r="M16">
+        <v>6.8</v>
+      </c>
+      <c r="N16">
+        <f>(L16-M16)</f>
+        <v>0.20000000000000018</v>
+      </c>
+      <c r="O16">
+        <v>42</v>
+      </c>
+      <c r="P16">
+        <v>40</v>
+      </c>
+      <c r="Q16">
+        <f>(O16-P16)</f>
+        <v>2</v>
+      </c>
+      <c r="R16">
+        <v>6.5</v>
+      </c>
+      <c r="S16">
+        <v>7.8</v>
+      </c>
+      <c r="T16">
+        <f>(R16-S16)</f>
+        <v>-1.2999999999999998</v>
+      </c>
+      <c r="U16">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="V16">
+        <v>5.4</v>
+      </c>
+      <c r="W16">
+        <f>(U16-V16)</f>
+        <v>-0.30000000000000071</v>
       </c>
       <c r="X16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Y16" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>23</v>
-      </c>
+      <c r="A17" s="22"/>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C17">
         <v>-87.7</v>
@@ -7458,64 +7120,64 @@
         <v>1.0999999999999943</v>
       </c>
       <c r="F17">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G17">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="H17">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>-4</v>
       </c>
       <c r="I17">
         <v>0.2</v>
       </c>
       <c r="J17">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="K17">
-        <f t="shared" si="2"/>
-        <v>0.1</v>
+        <f t="shared" ref="K17:K25" si="3">(I17-J17)</f>
+        <v>-0.60000000000000009</v>
       </c>
       <c r="L17">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="M17">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="N17">
-        <f t="shared" si="3"/>
-        <v>0.20000000000000018</v>
+        <f>(L17-M17)</f>
+        <v>0.29999999999999982</v>
       </c>
       <c r="O17">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P17">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q17">
-        <f t="shared" si="4"/>
+        <f>(O17-P17)</f>
         <v>2</v>
       </c>
       <c r="R17">
-        <v>6.5</v>
+        <v>3.9</v>
       </c>
       <c r="S17">
-        <v>7.8</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="T17">
-        <f t="shared" si="5"/>
-        <v>1.2999999999999998</v>
+        <f>(R17-S17)</f>
+        <v>-0.50000000000000044</v>
       </c>
       <c r="U17">
         <v>5.0999999999999996</v>
       </c>
       <c r="V17">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="W17">
-        <f t="shared" si="6"/>
-        <v>0.30000000000000071</v>
+        <f>(U17-V17)</f>
+        <v>-0.20000000000000018</v>
       </c>
       <c r="X17" t="s">
         <v>32</v>
@@ -7525,79 +7187,79 @@
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
+      <c r="A18" s="22"/>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C18">
         <v>-87.7</v>
       </c>
       <c r="D18">
-        <v>-88.8</v>
+        <v>-89.3</v>
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>1.0999999999999943</v>
+        <v>1.5999999999999943</v>
       </c>
       <c r="F18">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G18">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="H18">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>-5</v>
       </c>
       <c r="I18">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="J18">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="K18">
-        <f t="shared" si="2"/>
-        <v>0.60000000000000009</v>
+        <f t="shared" si="3"/>
+        <v>-1.7</v>
       </c>
       <c r="L18">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="M18">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="N18">
-        <f t="shared" si="3"/>
+        <f>(L18-M18)</f>
+        <v>0.40000000000000036</v>
+      </c>
+      <c r="O18">
+        <v>43</v>
+      </c>
+      <c r="P18">
+        <v>41</v>
+      </c>
+      <c r="Q18">
+        <f>(O18-P18)</f>
+        <v>2</v>
+      </c>
+      <c r="R18">
+        <v>1.4</v>
+      </c>
+      <c r="S18">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="T18">
+        <f>(R18-S18)</f>
         <v>0.29999999999999982</v>
       </c>
-      <c r="O18">
-        <v>41</v>
-      </c>
-      <c r="P18">
-        <v>39</v>
-      </c>
-      <c r="Q18">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="R18">
-        <v>3.9</v>
-      </c>
-      <c r="S18">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="T18">
-        <f t="shared" si="5"/>
-        <v>0.50000000000000044</v>
-      </c>
       <c r="U18">
-        <v>5.0999999999999996</v>
+        <v>4.7</v>
       </c>
       <c r="V18">
-        <v>5.3</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="W18">
-        <f t="shared" si="6"/>
-        <v>0.20000000000000018</v>
+        <f>(U18-V18)</f>
+        <v>-0.20000000000000018</v>
       </c>
       <c r="X18" t="s">
         <v>32</v>
@@ -7607,79 +7269,79 @@
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
+      <c r="A19" s="22"/>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C19">
-        <v>-87.7</v>
+        <v>-87.9</v>
       </c>
       <c r="D19">
-        <v>-89.3</v>
+        <v>-89.4</v>
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
-        <v>1.5999999999999943</v>
+        <v>1.5</v>
       </c>
       <c r="F19">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="G19">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H19">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>-9</v>
       </c>
       <c r="I19">
         <v>0.1</v>
       </c>
       <c r="J19">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="K19">
-        <f t="shared" si="2"/>
-        <v>1.7</v>
+        <f t="shared" si="3"/>
+        <v>-1.5</v>
       </c>
       <c r="L19">
-        <v>6.2</v>
+        <v>6.9</v>
       </c>
       <c r="M19">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="N19">
-        <f t="shared" si="3"/>
-        <v>0.40000000000000036</v>
+        <f>(L19-M19)</f>
+        <v>0.90000000000000036</v>
       </c>
       <c r="O19">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P19">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="Q19">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <f>(O19-P19)</f>
+        <v>5</v>
       </c>
       <c r="R19">
-        <v>1.4</v>
+        <v>5.4</v>
       </c>
       <c r="S19">
-        <v>1.1000000000000001</v>
+        <v>2.4</v>
       </c>
       <c r="T19">
-        <f t="shared" si="5"/>
-        <v>0.29999999999999982</v>
+        <f>(R19-S19)</f>
+        <v>3.0000000000000004</v>
       </c>
       <c r="U19">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="V19">
-        <v>4.9000000000000004</v>
+        <v>5.2</v>
       </c>
       <c r="W19">
-        <f t="shared" si="6"/>
-        <v>0.20000000000000018</v>
+        <f>(U19-V19)</f>
+        <v>-0.40000000000000036</v>
       </c>
       <c r="X19" t="s">
         <v>32</v>
@@ -7689,79 +7351,79 @@
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
+      <c r="A20" s="22"/>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C20">
-        <v>-87.9</v>
+        <v>-87.7</v>
       </c>
       <c r="D20">
-        <v>-89.4</v>
+        <v>-88.8</v>
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
-        <v>1.5</v>
+        <v>1.0999999999999943</v>
       </c>
       <c r="F20">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G20">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H20">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="I20">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
       <c r="J20">
-        <v>1.6</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K20">
-        <f t="shared" si="2"/>
-        <v>1.5</v>
+        <f t="shared" si="3"/>
+        <v>-0.40000000000000013</v>
       </c>
       <c r="L20">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="M20">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="N20">
-        <f t="shared" si="3"/>
-        <v>0.90000000000000036</v>
+        <f>(L20-M20)</f>
+        <v>1</v>
       </c>
       <c r="O20">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P20">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="Q20">
-        <f t="shared" si="4"/>
-        <v>5</v>
+        <f>(O20-P20)</f>
+        <v>0</v>
       </c>
       <c r="R20">
-        <v>5.4</v>
+        <v>2.1</v>
       </c>
       <c r="S20">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="T20">
-        <f t="shared" si="5"/>
-        <v>3.0000000000000004</v>
+        <f>(R20-S20)</f>
+        <v>-1</v>
       </c>
       <c r="U20">
+        <v>4.7</v>
+      </c>
+      <c r="V20">
         <v>4.8</v>
       </c>
-      <c r="V20">
-        <v>5.2</v>
-      </c>
       <c r="W20">
-        <f t="shared" si="6"/>
-        <v>0.40000000000000036</v>
+        <f>(U20-V20)</f>
+        <v>-9.9999999999999645E-2</v>
       </c>
       <c r="X20" t="s">
         <v>32</v>
@@ -7771,9 +7433,9 @@
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
+      <c r="A21" s="22"/>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C21">
         <v>-87.7</v>
@@ -7786,64 +7448,64 @@
         <v>1.0999999999999943</v>
       </c>
       <c r="F21">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G21">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H21">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>-4</v>
       </c>
       <c r="I21">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="J21">
-        <v>1.1000000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="K21">
-        <f t="shared" si="2"/>
-        <v>0.40000000000000013</v>
+        <f t="shared" si="3"/>
+        <v>-9.9999999999999978E-2</v>
       </c>
       <c r="L21">
-        <v>7.1</v>
+        <v>6.7</v>
       </c>
       <c r="M21">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="N21">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f>(L21-M21)</f>
+        <v>0.40000000000000036</v>
       </c>
       <c r="O21">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="P21">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="Q21">
-        <f t="shared" si="4"/>
+        <f>(O21-P21)</f>
         <v>0</v>
       </c>
       <c r="R21">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="S21">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="T21">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f>(R21-S21)</f>
+        <v>-2.2999999999999998</v>
       </c>
       <c r="U21">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="V21">
-        <v>4.8</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="W21">
-        <f t="shared" si="6"/>
-        <v>9.9999999999999645E-2</v>
+        <f>(U21-V21)</f>
+        <v>-9.9999999999999645E-2</v>
       </c>
       <c r="X21" t="s">
         <v>32</v>
@@ -7853,79 +7515,79 @@
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
+      <c r="A22" s="22"/>
       <c r="B22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C22">
-        <v>-87.7</v>
+        <v>-87.1</v>
       </c>
       <c r="D22">
         <v>-88.8</v>
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
-        <v>1.0999999999999943</v>
+        <v>1.7000000000000028</v>
       </c>
       <c r="F22">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G22">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H22">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I22">
+        <v>0.7</v>
+      </c>
+      <c r="J22">
         <v>0.4</v>
       </c>
-      <c r="J22">
-        <v>0.5</v>
-      </c>
       <c r="K22">
-        <f t="shared" si="2"/>
-        <v>9.9999999999999978E-2</v>
+        <f t="shared" si="3"/>
+        <v>0.29999999999999993</v>
       </c>
       <c r="L22">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="M22">
-        <v>6.3</v>
+        <v>6.9</v>
       </c>
       <c r="N22">
-        <f t="shared" si="3"/>
-        <v>0.40000000000000036</v>
+        <f>(L22-M22)</f>
+        <v>9.9999999999999645E-2</v>
       </c>
       <c r="O22">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="P22">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="Q22">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>(O22-P22)</f>
+        <v>2</v>
       </c>
       <c r="R22">
-        <v>1.2</v>
+        <v>3.3</v>
       </c>
       <c r="S22">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="T22">
-        <f t="shared" si="5"/>
-        <v>2.2999999999999998</v>
+        <f>(R22-S22)</f>
+        <v>-0.30000000000000027</v>
       </c>
       <c r="U22">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="V22">
-        <v>4.5999999999999996</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="W22">
-        <f t="shared" si="6"/>
-        <v>9.9999999999999645E-2</v>
+        <f>(U22-V22)</f>
+        <v>-0.29999999999999982</v>
       </c>
       <c r="X22" t="s">
         <v>32</v>
@@ -7935,79 +7597,79 @@
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
+      <c r="A23" s="22"/>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C23">
-        <v>-87.1</v>
+        <v>-87.7</v>
       </c>
       <c r="D23">
-        <v>-88.8</v>
+        <v>-88.9</v>
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
-        <v>1.7000000000000028</v>
+        <v>1.2000000000000028</v>
       </c>
       <c r="F23">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G23">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23">
-        <v>0.7</v>
+        <v>3.2</v>
       </c>
       <c r="J23">
         <v>0.4</v>
       </c>
       <c r="K23">
-        <f t="shared" si="2"/>
-        <v>0.29999999999999993</v>
+        <f t="shared" si="3"/>
+        <v>2.8000000000000003</v>
       </c>
       <c r="L23">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="M23">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="N23">
-        <f t="shared" si="3"/>
-        <v>9.9999999999999645E-2</v>
+        <f>(L23-M23)</f>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="P23">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="Q23">
-        <f t="shared" si="4"/>
+        <f>(O23-P23)</f>
         <v>2</v>
       </c>
       <c r="R23">
-        <v>3.3</v>
+        <v>2.4</v>
       </c>
       <c r="S23">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="T23">
-        <f t="shared" si="5"/>
-        <v>0.30000000000000027</v>
+        <f>(R23-S23)</f>
+        <v>-1</v>
       </c>
       <c r="U23">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="V23">
-        <v>5.0999999999999996</v>
+        <v>4.5</v>
       </c>
       <c r="W23">
-        <f t="shared" si="6"/>
-        <v>0.29999999999999982</v>
+        <f>(U23-V23)</f>
+        <v>-0.20000000000000018</v>
       </c>
       <c r="X23" t="s">
         <v>32</v>
@@ -8017,79 +7679,79 @@
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
+      <c r="A24" s="22"/>
       <c r="B24" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C24">
-        <v>-87.7</v>
+        <v>-87.6</v>
       </c>
       <c r="D24">
         <v>-88.9</v>
       </c>
       <c r="E24">
         <f t="shared" si="0"/>
-        <v>1.2000000000000028</v>
+        <v>1.3000000000000114</v>
       </c>
       <c r="F24">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="G24">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H24">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="I24">
+        <v>2.6</v>
+      </c>
+      <c r="J24">
         <v>3.2</v>
       </c>
-      <c r="J24">
-        <v>0.4</v>
-      </c>
       <c r="K24">
-        <f t="shared" si="2"/>
-        <v>2.8000000000000003</v>
+        <f t="shared" si="3"/>
+        <v>-0.60000000000000009</v>
       </c>
       <c r="L24">
-        <v>6.7</v>
+        <v>5.7</v>
       </c>
       <c r="M24">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="N24">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>(L24-M24)</f>
+        <v>-1.0999999999999996</v>
       </c>
       <c r="O24">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="P24">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Q24">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <f>(O24-P24)</f>
+        <v>1</v>
       </c>
       <c r="R24">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="S24">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="T24">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f>(R24-S24)</f>
+        <v>-0.30000000000000027</v>
       </c>
       <c r="U24">
-        <v>4.3</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="V24">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="W24">
-        <f t="shared" si="6"/>
-        <v>0.20000000000000018</v>
+        <f>(U24-V24)</f>
+        <v>-0.10000000000000053</v>
       </c>
       <c r="X24" t="s">
         <v>32</v>
@@ -8099,49 +7761,49 @@
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
+      <c r="A25" s="22"/>
       <c r="B25" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C25">
         <v>-87.6</v>
       </c>
       <c r="D25">
-        <v>-88.9</v>
+        <v>-89.4</v>
       </c>
       <c r="E25">
         <f t="shared" si="0"/>
-        <v>1.3000000000000114</v>
+        <v>1.8000000000000114</v>
       </c>
       <c r="F25">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="G25">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H25">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>-7</v>
       </c>
       <c r="I25">
-        <v>2.6</v>
+        <v>0.3</v>
       </c>
       <c r="J25">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="K25">
-        <f t="shared" si="2"/>
-        <v>0.60000000000000009</v>
+        <f t="shared" si="3"/>
+        <v>-1.8</v>
       </c>
       <c r="L25">
-        <v>5.7</v>
+        <v>6.6</v>
       </c>
       <c r="M25">
-        <v>6.8</v>
+        <v>6</v>
       </c>
       <c r="N25">
-        <f t="shared" si="3"/>
-        <v>1.0999999999999996</v>
+        <f>(L25-M25)</f>
+        <v>0.59999999999999964</v>
       </c>
       <c r="O25">
         <v>45</v>
@@ -8150,28 +7812,28 @@
         <v>44</v>
       </c>
       <c r="Q25">
-        <f t="shared" si="4"/>
+        <f>(O25-P25)</f>
         <v>1</v>
       </c>
       <c r="R25">
-        <v>3.4</v>
+        <v>6.1</v>
       </c>
       <c r="S25">
-        <v>3.7</v>
+        <v>6.7</v>
       </c>
       <c r="T25">
-        <f t="shared" si="5"/>
-        <v>0.30000000000000027</v>
+        <f>(R25-S25)</f>
+        <v>-0.60000000000000053</v>
       </c>
       <c r="U25">
-        <v>4.5999999999999996</v>
+        <v>4.7</v>
       </c>
       <c r="V25">
-        <v>4.7</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="W25">
-        <f t="shared" si="6"/>
-        <v>0.10000000000000053</v>
+        <f>(U25-V25)</f>
+        <v>-0.20000000000000018</v>
       </c>
       <c r="X25" t="s">
         <v>32</v>
@@ -8181,668 +7843,614 @@
       </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
+      <c r="A26" s="22"/>
       <c r="B26" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C26">
         <v>-87.6</v>
       </c>
       <c r="D26">
-        <v>-89.4</v>
+        <v>-89</v>
       </c>
       <c r="E26">
         <f t="shared" si="0"/>
-        <v>1.8000000000000114</v>
-      </c>
-      <c r="F26">
-        <v>61</v>
-      </c>
-      <c r="G26">
-        <v>68</v>
-      </c>
-      <c r="H26">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="I26">
-        <v>0.3</v>
-      </c>
-      <c r="J26">
-        <v>2.1</v>
-      </c>
-      <c r="K26">
-        <f t="shared" si="2"/>
-        <v>1.8</v>
-      </c>
-      <c r="L26">
-        <v>6.6</v>
-      </c>
-      <c r="M26">
-        <v>6</v>
-      </c>
-      <c r="N26">
-        <f t="shared" si="3"/>
-        <v>0.59999999999999964</v>
-      </c>
-      <c r="O26">
-        <v>45</v>
-      </c>
-      <c r="P26">
-        <v>44</v>
-      </c>
-      <c r="Q26">
+        <v>1.4000000000000057</v>
+      </c>
+      <c r="X26" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27">
+        <f>AVERAGE(C3:C12,C14,C16:C25)</f>
+        <v>-88.928571428571431</v>
+      </c>
+      <c r="D27">
+        <f t="shared" ref="D27:T27" si="4">AVERAGE(D3:D12,D14,D16:D25)</f>
+        <v>-91.8</v>
+      </c>
+      <c r="E27">
+        <f>AVERAGE(E3:E12,E14,E16:E25)</f>
+        <v>2.8714285714285719</v>
+      </c>
+      <c r="F27">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="R26">
-        <v>6.1</v>
-      </c>
-      <c r="S26">
-        <v>6.7</v>
-      </c>
-      <c r="T26">
-        <f t="shared" si="5"/>
-        <v>0.60000000000000053</v>
-      </c>
-      <c r="U26">
-        <v>4.7</v>
-      </c>
-      <c r="V26">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="W26">
-        <f t="shared" si="6"/>
-        <v>0.20000000000000018</v>
-      </c>
-      <c r="X26" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
-      <c r="B27" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27">
-        <v>-87.6</v>
-      </c>
-      <c r="D27">
-        <v>-89</v>
-      </c>
-      <c r="E27">
-        <f t="shared" si="0"/>
-        <v>1.4000000000000057</v>
-      </c>
-      <c r="X27" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y27" t="s">
-        <v>32</v>
+        <v>65.19047619047619</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="4"/>
+        <v>67.952380952380949</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="4"/>
+        <v>-2.7619047619047619</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="4"/>
+        <v>6.6619047619047596</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="4"/>
+        <v>4.4333333333333327</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="4"/>
+        <v>2.2285714285714286</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="4"/>
+        <v>6.8142857142857141</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="4"/>
+        <v>6.1999999999999993</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="4"/>
+        <v>0.61428571428571443</v>
+      </c>
+      <c r="O27">
+        <f>AVERAGE(O3:O12,O16:O25)</f>
+        <v>40.65</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="4"/>
+        <v>39.952380952380949</v>
+      </c>
+      <c r="Q27">
+        <f>AVERAGE(Q3:Q12,Q16:Q25)</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R27">
+        <f>AVERAGE(R3:R12,R16:R25)</f>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="S27">
+        <f>AVERAGE(S3:S12,S16:S25)</f>
+        <v>4.4749999999999996</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="4"/>
+        <v>-7.5000000000000039E-2</v>
+      </c>
+      <c r="U27">
+        <f>AVERAGE(U3:U12,U16:U25)</f>
+        <v>5.2750000000000004</v>
+      </c>
+      <c r="V27">
+        <f>AVERAGE(V3:V12,V14,V16:V25)</f>
+        <v>5.3380952380952387</v>
+      </c>
+      <c r="W27">
+        <f>AVERAGE(W3:W12,W16:W25)</f>
+        <v>-0.11000000000000006</v>
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C28">
-        <f>AVERAGE(C4:C13,C15,C17:C26)</f>
+        <f>_xlfn.STDEV.S(C3:C12,C14,C16:C25)</f>
+        <v>1.3368406251841898</v>
+      </c>
+      <c r="D28">
+        <f>_xlfn.STDEV.S(D3:D12,D14,D16:D25)</f>
+        <v>2.7524534510142029</v>
+      </c>
+      <c r="E28">
+        <f>_xlfn.STDEV.S(E3:E12,E14,E16:E25)</f>
+        <v>1.5556808339575499</v>
+      </c>
+      <c r="F28">
+        <f>_xlfn.STDEV.S(F3:F12,F14,F16:F25)</f>
+        <v>10.077792653250244</v>
+      </c>
+      <c r="G28">
+        <f>_xlfn.STDEV.S(G3:G12,G14,G16:G25)</f>
+        <v>5.6610616537553318</v>
+      </c>
+      <c r="H28">
+        <f>_xlfn.STDEV.S(H3:H12,H14,H16:H25)</f>
+        <v>7.3885368098478192</v>
+      </c>
+      <c r="I28">
+        <f>_xlfn.STDEV.S(I3:I12,I14,I16:I25)</f>
+        <v>7.0786634466173215</v>
+      </c>
+      <c r="J28">
+        <f>_xlfn.STDEV.S(J3:J12,J14,J16:J25)</f>
+        <v>5.5996726094775706</v>
+      </c>
+      <c r="K28">
+        <f>_xlfn.STDEV.S(K3:K12,K14,K16:K25)</f>
+        <v>4.7853048865399224</v>
+      </c>
+      <c r="L28">
+        <f>_xlfn.STDEV.S(L3:L12,L14,L16:L25)</f>
+        <v>1.5828094371356665</v>
+      </c>
+      <c r="M28">
+        <f>_xlfn.STDEV.S(M3:M12,M14,M16:M25)</f>
+        <v>0.45055521304275242</v>
+      </c>
+      <c r="N28">
+        <f>_xlfn.STDEV.S(N3:N12,N14,N16:N25)</f>
+        <v>1.5395732247235645</v>
+      </c>
+      <c r="O28">
+        <f>_xlfn.STDEV.S(O3:O12,O14,O16:O25)</f>
+        <v>5.4413136958681454</v>
+      </c>
+      <c r="P28">
+        <f>_xlfn.STDEV.S(P3:P12,P14,P16:P25)</f>
+        <v>5.2485825750976884</v>
+      </c>
+      <c r="Q28">
+        <f>_xlfn.STDEV.S(Q3:Q12,Q16:Q25)</f>
+        <v>1.5861240410775603</v>
+      </c>
+      <c r="R28">
+        <f>_xlfn.STDEV.S(R3:R12,R14,R16:R25)</f>
+        <v>3.1447533582477543</v>
+      </c>
+      <c r="S28">
+        <f>_xlfn.STDEV.S(S3:S12,S14,S16:S25)</f>
+        <v>2.4422472087344937</v>
+      </c>
+      <c r="T28">
+        <f>_xlfn.STDEV.S(T3:T12,T16:T25)</f>
+        <v>1.9872951731595283</v>
+      </c>
+      <c r="U28">
+        <f>_xlfn.STDEV.S(U3:U12,U14,U16:U25)</f>
+        <v>0.92785831495523974</v>
+      </c>
+      <c r="V28">
+        <f>_xlfn.STDEV.S(V3:V12,V14,V16:V25)</f>
+        <v>0.81454047810786467</v>
+      </c>
+      <c r="W28">
+        <f>_xlfn.STDEV.S(W3:W12,W16:W25)</f>
+        <v>0.33387675002989703</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" ht="60" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="I32" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="J32" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="K32" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="L32" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="M32" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="N32" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="O32" s="18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" s="5">
+        <f>C27</f>
         <v>-88.928571428571431</v>
       </c>
-      <c r="D28">
-        <f t="shared" ref="D28:T28" si="7">AVERAGE(D4:D13,D15,D17:D26)</f>
+      <c r="C33" s="5">
+        <f>D27</f>
         <v>-91.8</v>
       </c>
-      <c r="E28">
-        <f t="shared" si="7"/>
-        <v>2.8714285714285719</v>
-      </c>
-      <c r="F28">
-        <f t="shared" si="7"/>
+      <c r="D33" s="4">
+        <f>C28</f>
+        <v>1.3368406251841898</v>
+      </c>
+      <c r="E33" s="4">
+        <f>D28</f>
+        <v>2.7524534510142029</v>
+      </c>
+      <c r="F33" s="4">
+        <f t="shared" ref="F33:F39" si="5">B33-C33</f>
+        <v>2.8714285714285666</v>
+      </c>
+      <c r="G33" s="5">
+        <f>E28</f>
+        <v>1.5556808339575499</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="J33" s="10" cm="1">
+        <f t="array" ref="J33:J39">Table14[Difference between Means]</f>
+        <v>2.8714285714285666</v>
+      </c>
+      <c r="K33" s="13" cm="1">
+        <f t="array" ref="K33:K39">Table1[Difference Between Means]</f>
+        <v>2.7329434697890065E-2</v>
+      </c>
+      <c r="L33" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="M33" s="10" cm="1">
+        <f t="array" ref="M33:M39">Table14[STDev of Differences]</f>
+        <v>1.5556808339575499</v>
+      </c>
+      <c r="N33" s="10" cm="1">
+        <f t="array" ref="N33:N39">Table1[STDev of Differences]</f>
+        <v>1.250808249331508</v>
+      </c>
+      <c r="O33" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" s="4">
+        <f>F27</f>
         <v>65.19047619047619</v>
       </c>
-      <c r="G28">
-        <f t="shared" si="7"/>
+      <c r="C34" s="4">
+        <f>G27</f>
         <v>67.952380952380949</v>
       </c>
-      <c r="H28">
-        <f t="shared" si="7"/>
-        <v>4.666666666666667</v>
-      </c>
-      <c r="I28">
-        <f t="shared" si="7"/>
-        <v>6.6619047619047596</v>
-      </c>
-      <c r="J28">
-        <f t="shared" si="7"/>
-        <v>4.4333333333333327</v>
-      </c>
-      <c r="K28">
-        <f t="shared" si="7"/>
-        <v>3.6952380952380941</v>
-      </c>
-      <c r="L28">
-        <f t="shared" si="7"/>
-        <v>6.8142857142857141</v>
-      </c>
-      <c r="M28">
-        <f t="shared" si="7"/>
-        <v>6.1999999999999993</v>
-      </c>
-      <c r="N28">
-        <f t="shared" si="7"/>
-        <v>0.80476190476190468</v>
-      </c>
-      <c r="O28">
-        <f>AVERAGE(O4:O13,O17:O26)</f>
-        <v>40.65</v>
-      </c>
-      <c r="P28">
-        <f t="shared" si="7"/>
-        <v>39.952380952380949</v>
-      </c>
-      <c r="Q28">
-        <f>AVERAGE(Q4:Q13,Q17:Q26)</f>
-        <v>1.4</v>
-      </c>
-      <c r="R28">
-        <f>AVERAGE(R4:R13,R17:R26)</f>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="S28">
-        <f>AVERAGE(S4:S13,S17:S26)</f>
-        <v>4.4749999999999996</v>
-      </c>
-      <c r="T28">
-        <f t="shared" si="7"/>
-        <v>1.2150000000000001</v>
-      </c>
-      <c r="U28">
-        <f>AVERAGE(U4:U13,U17:U26)</f>
-        <v>5.2750000000000004</v>
-      </c>
-      <c r="V28">
-        <f>AVERAGE(V4:V13,V15,V17:V26)</f>
-        <v>5.3380952380952387</v>
-      </c>
-      <c r="W28">
-        <f>AVERAGE(W4:W13,W17:W26)</f>
-        <v>0.23000000000000007</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C29">
-        <f>_xlfn.STDEV.S(C4:C13,C15,C17:C26)</f>
-        <v>1.3368406251841898</v>
-      </c>
-      <c r="D29">
-        <f>_xlfn.STDEV.S(D4:D13,D15,D17:D26)</f>
-        <v>2.7524534510142029</v>
-      </c>
-      <c r="F29">
-        <f>_xlfn.STDEV.S(F4:F13,F15,F17:F26)</f>
+      <c r="D34" s="5">
+        <f>F28</f>
         <v>10.077792653250244</v>
       </c>
-      <c r="G29">
-        <f>_xlfn.STDEV.S(G4:G13,G15,G17:G26)</f>
+      <c r="E34" s="5">
+        <f>G28</f>
         <v>5.6610616537553318</v>
       </c>
-      <c r="I29">
-        <f>_xlfn.STDEV.S(I4:I13,I15,I17:I26)</f>
-        <v>7.0786634466173215</v>
-      </c>
-      <c r="J29">
-        <f>_xlfn.STDEV.S(J4:J13,J15,J17:J26)</f>
-        <v>5.5996726094775706</v>
-      </c>
-      <c r="L29">
-        <f>_xlfn.STDEV.S(L4:L13,L15,L17:L26)</f>
-        <v>1.5828094371356665</v>
-      </c>
-      <c r="M29">
-        <f>_xlfn.STDEV.S(M4:M13,M15,M17:M26)</f>
-        <v>0.45055521304275242</v>
-      </c>
-      <c r="O29">
-        <f>_xlfn.STDEV.S(O4:O13,O15,O17:O26)</f>
-        <v>5.4413136958681454</v>
-      </c>
-      <c r="P29">
-        <f>_xlfn.STDEV.S(P4:P13,P15,P17:P26)</f>
-        <v>5.2485825750976884</v>
-      </c>
-      <c r="R29">
-        <f>_xlfn.STDEV.S(R4:R13,R15,R17:R26)</f>
-        <v>3.1447533582477543</v>
-      </c>
-      <c r="S29">
-        <f>_xlfn.STDEV.S(S4:S13,S15,S17:S26)</f>
-        <v>2.4422472087344937</v>
-      </c>
-      <c r="U29">
-        <f>_xlfn.STDEV.S(U4:U13,U15,U17:U26)</f>
-        <v>0.92785831495523974</v>
-      </c>
-      <c r="V29">
-        <f>_xlfn.STDEV.S(V4:V13,V15,V17:V26)</f>
-        <v>0.81454047810786467</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="I33" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="J33" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="K33" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="L33" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="M33" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="N33" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="O33" s="19" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>48</v>
-      </c>
-      <c r="B34" s="5">
-        <f>C28</f>
-        <v>-88.928571428571431</v>
-      </c>
-      <c r="C34" s="5">
-        <f>D28</f>
-        <v>-91.8</v>
-      </c>
-      <c r="D34" s="4">
-        <f>C29</f>
-        <v>1.3368406251841898</v>
-      </c>
-      <c r="E34" s="4">
-        <f>D29</f>
-        <v>2.7524534510142029</v>
-      </c>
       <c r="F34" s="4">
-        <f t="shared" ref="F34:F40" si="8">ABS(B34-C34)</f>
-        <v>2.8714285714285666</v>
-      </c>
-      <c r="G34" s="5">
-        <f>E28</f>
-        <v>2.8714285714285719</v>
-      </c>
-      <c r="I34" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="J34" s="9" cm="1">
-        <f t="array" ref="J34:J40">Table14[Systematic error]</f>
-        <v>2.8714285714285666</v>
-      </c>
-      <c r="K34" s="14" cm="1">
-        <f t="array" ref="K34:K40">Table1[Systematic error]</f>
-        <v>2.7329434697890065E-2</v>
-      </c>
-      <c r="L34" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="M34" s="11" cm="1">
-        <f t="array" ref="M34:M40">Table14[Average error]</f>
-        <v>2.8714285714285719</v>
-      </c>
-      <c r="N34" s="11" cm="1">
-        <f t="array" ref="N34:N40">Table1[Average error]</f>
-        <v>1.0859259259259286</v>
-      </c>
-      <c r="O34" s="15" t="s">
-        <v>64</v>
+        <f t="shared" si="5"/>
+        <v>-2.7619047619047592</v>
+      </c>
+      <c r="G34" s="4">
+        <f>H28</f>
+        <v>7.3885368098478192</v>
+      </c>
+      <c r="I34" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="J34" s="11">
+        <v>-2.7619047619047592</v>
+      </c>
+      <c r="K34" s="11">
+        <v>-0.42553191489362518</v>
+      </c>
+      <c r="L34" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="M34" s="17">
+        <v>7.3885368098478192</v>
+      </c>
+      <c r="N34" s="17">
+        <v>5.9823460602700722</v>
+      </c>
+      <c r="O34" s="14" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B35" s="4">
-        <f>F28</f>
-        <v>65.19047619047619</v>
+        <f>I27</f>
+        <v>6.6619047619047596</v>
       </c>
       <c r="C35" s="4">
-        <f>G28</f>
-        <v>67.952380952380949</v>
-      </c>
-      <c r="D35" s="5">
-        <f>F29</f>
-        <v>10.077792653250244</v>
-      </c>
-      <c r="E35" s="5">
-        <f>G29</f>
-        <v>5.6610616537553318</v>
+        <f>J27</f>
+        <v>4.4333333333333327</v>
+      </c>
+      <c r="D35" s="4">
+        <f>I28</f>
+        <v>7.0786634466173215</v>
+      </c>
+      <c r="E35" s="4">
+        <f>J28</f>
+        <v>5.5996726094775706</v>
       </c>
       <c r="F35" s="4">
-        <f t="shared" si="8"/>
-        <v>2.7619047619047592</v>
+        <f t="shared" si="5"/>
+        <v>2.2285714285714269</v>
       </c>
       <c r="G35" s="4">
-        <f>H28</f>
-        <v>4.666666666666667</v>
-      </c>
-      <c r="I35" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="J35" s="12">
-        <v>2.7619047619047592</v>
-      </c>
-      <c r="K35" s="12">
-        <v>0.42553191489362518</v>
-      </c>
-      <c r="L35" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="M35" s="18">
-        <v>4.666666666666667</v>
-      </c>
-      <c r="N35" s="18">
-        <v>4.480851063829788</v>
+        <f>K28</f>
+        <v>4.7853048865399224</v>
+      </c>
+      <c r="I35" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="J35" s="10">
+        <v>2.2285714285714269</v>
+      </c>
+      <c r="K35" s="10">
+        <v>-1.2319148936170237</v>
+      </c>
+      <c r="L35" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="M35" s="10">
+        <v>4.7853048865399224</v>
+      </c>
+      <c r="N35" s="10">
+        <v>5.1505637674951883</v>
       </c>
       <c r="O35" s="15" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="B36" s="4">
-        <f>I28</f>
-        <v>6.6619047619047596</v>
+        <f>L27</f>
+        <v>6.8142857142857141</v>
       </c>
       <c r="C36" s="4">
-        <f>J28</f>
-        <v>4.4333333333333327</v>
+        <f>M27</f>
+        <v>6.1999999999999993</v>
       </c>
       <c r="D36" s="4">
-        <f>I29</f>
-        <v>7.0786634466173215</v>
+        <f>L28</f>
+        <v>1.5828094371356665</v>
       </c>
       <c r="E36" s="4">
-        <f>J29</f>
-        <v>5.5996726094775706</v>
+        <f>M28</f>
+        <v>0.45055521304275242</v>
       </c>
       <c r="F36" s="4">
-        <f t="shared" si="8"/>
-        <v>2.2285714285714269</v>
+        <f t="shared" si="5"/>
+        <v>0.61428571428571477</v>
       </c>
       <c r="G36" s="4">
-        <f>K28</f>
-        <v>3.6952380952380941</v>
+        <f>N28</f>
+        <v>1.5395732247235645</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="J36" s="11">
-        <v>2.2285714285714269</v>
+        <v>0.61428571428571477</v>
       </c>
       <c r="K36" s="11">
-        <v>1.2319148936170237</v>
-      </c>
-      <c r="L36" s="15" t="s">
-        <v>64</v>
+        <v>9.5744680851065134E-2</v>
+      </c>
+      <c r="L36" s="14" t="s">
+        <v>52</v>
       </c>
       <c r="M36" s="11">
-        <v>3.6952380952380941</v>
+        <v>1.5395732247235645</v>
       </c>
       <c r="N36" s="11">
-        <v>3.3765957446808512</v>
-      </c>
-      <c r="O36" s="15" t="s">
-        <v>64</v>
+        <v>1.0613685682847551</v>
+      </c>
+      <c r="O36" s="14" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="B37" s="4">
-        <f>L28</f>
-        <v>6.8142857142857141</v>
+        <f>O27</f>
+        <v>40.65</v>
       </c>
       <c r="C37" s="4">
-        <f>M28</f>
-        <v>6.1999999999999993</v>
+        <f>P27</f>
+        <v>39.952380952380949</v>
       </c>
       <c r="D37" s="4">
-        <f>L29</f>
-        <v>1.5828094371356665</v>
+        <f>O28</f>
+        <v>5.4413136958681454</v>
       </c>
       <c r="E37" s="4">
-        <f>M29</f>
-        <v>0.45055521304275242</v>
+        <f>P28</f>
+        <v>5.2485825750976884</v>
       </c>
       <c r="F37" s="4">
-        <f t="shared" si="8"/>
-        <v>0.61428571428571477</v>
+        <f t="shared" si="5"/>
+        <v>0.69761904761904958</v>
       </c>
       <c r="G37" s="4">
-        <f>N28</f>
-        <v>0.80476190476190468</v>
-      </c>
-      <c r="I37" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="J37" s="12">
-        <v>0.61428571428571477</v>
-      </c>
-      <c r="K37" s="12">
-        <v>9.5744680851065134E-2</v>
+        <f>Q28</f>
+        <v>1.5861240410775603</v>
+      </c>
+      <c r="I37" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="J37" s="10">
+        <v>0.69761904761904958</v>
+      </c>
+      <c r="K37" s="10">
+        <v>0.94999999999999574</v>
       </c>
       <c r="L37" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="M37" s="12">
-        <v>0.80476190476190468</v>
-      </c>
-      <c r="N37" s="12">
-        <v>0.67021276595744661</v>
+        <v>53</v>
+      </c>
+      <c r="M37" s="10">
+        <v>1.5861240410775603</v>
+      </c>
+      <c r="N37" s="10">
+        <v>2.8367412659777425</v>
       </c>
       <c r="O37" s="15" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B38" s="4">
-        <f>O28</f>
-        <v>40.65</v>
+        <f>R27</f>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C38" s="4">
-        <f>P28</f>
-        <v>39.952380952380949</v>
+        <f>S27</f>
+        <v>4.4749999999999996</v>
       </c>
       <c r="D38" s="4">
-        <f>O29</f>
-        <v>5.4413136958681454</v>
+        <f>R28</f>
+        <v>3.1447533582477543</v>
       </c>
       <c r="E38" s="4">
-        <f>P29</f>
-        <v>5.2485825750976884</v>
+        <f>S28</f>
+        <v>2.4422472087344937</v>
       </c>
       <c r="F38" s="4">
-        <f t="shared" si="8"/>
-        <v>0.69761904761904958</v>
+        <f t="shared" si="5"/>
+        <v>-7.4999999999999289E-2</v>
       </c>
       <c r="G38" s="4">
-        <f>Q28</f>
-        <v>1.4</v>
+        <f>T28</f>
+        <v>1.9872951731595283</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J38" s="11">
-        <v>0.69761904761904958</v>
+        <v>-7.4999999999999289E-2</v>
       </c>
       <c r="K38" s="11">
-        <v>0.94999999999999574</v>
-      </c>
-      <c r="L38" s="16" t="s">
-        <v>65</v>
+        <v>0.24289855072463906</v>
+      </c>
+      <c r="L38" s="14" t="s">
+        <v>52</v>
       </c>
       <c r="M38" s="11">
-        <v>1.4</v>
+        <v>1.9872951731595283</v>
       </c>
       <c r="N38" s="11">
-        <v>2.1755555555555555</v>
-      </c>
-      <c r="O38" s="16" t="s">
-        <v>65</v>
+        <v>0.91241161188081654</v>
+      </c>
+      <c r="O38" s="14" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="B39" s="4">
-        <f>R28</f>
-        <v>4.4000000000000004</v>
+        <f>U27</f>
+        <v>5.2750000000000004</v>
       </c>
       <c r="C39" s="4">
-        <f>S28</f>
-        <v>4.4749999999999996</v>
+        <f>V27</f>
+        <v>5.3380952380952387</v>
       </c>
       <c r="D39" s="4">
-        <f>R29</f>
-        <v>3.1447533582477543</v>
+        <f>U28</f>
+        <v>0.92785831495523974</v>
       </c>
       <c r="E39" s="4">
-        <f>S29</f>
-        <v>2.4422472087344937</v>
+        <f>V28</f>
+        <v>0.81454047810786467</v>
       </c>
       <c r="F39" s="4">
-        <f t="shared" si="8"/>
-        <v>7.4999999999999289E-2</v>
+        <f t="shared" si="5"/>
+        <v>-6.3095238095238315E-2</v>
       </c>
       <c r="G39" s="4">
-        <f>T28</f>
-        <v>1.2150000000000001</v>
+        <f>W28</f>
+        <v>0.33387675002989703</v>
       </c>
       <c r="I39" s="12" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="J39" s="12">
-        <v>7.4999999999999289E-2</v>
+        <v>-6.3095238095238315E-2</v>
       </c>
       <c r="K39" s="12">
-        <v>0.24289855072463906</v>
-      </c>
-      <c r="L39" s="15" t="s">
-        <v>64</v>
+        <v>0.11323671497584531</v>
+      </c>
+      <c r="L39" s="20" t="s">
+        <v>52</v>
       </c>
       <c r="M39" s="12">
-        <v>1.2150000000000001</v>
+        <v>0.33387675002989703</v>
       </c>
       <c r="N39" s="12">
-        <v>0.60217391304347834</v>
-      </c>
-      <c r="O39" s="15" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B40" s="4">
-        <f>U28</f>
-        <v>5.2750000000000004</v>
-      </c>
-      <c r="C40" s="4">
-        <f>V28</f>
-        <v>5.3380952380952387</v>
-      </c>
-      <c r="D40" s="4">
-        <f>U29</f>
-        <v>0.92785831495523974</v>
-      </c>
-      <c r="E40" s="4">
-        <f>V29</f>
-        <v>0.81454047810786467</v>
-      </c>
-      <c r="F40" s="4">
-        <f t="shared" si="8"/>
-        <v>6.3095238095238315E-2</v>
-      </c>
-      <c r="G40" s="4">
-        <f>W28</f>
-        <v>0.23000000000000007</v>
-      </c>
-      <c r="I40" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="J40" s="13">
-        <v>6.3095238095238315E-2</v>
-      </c>
-      <c r="K40" s="13">
-        <v>0.11323671497584531</v>
-      </c>
-      <c r="L40" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="M40" s="13">
-        <v>0.23000000000000007</v>
-      </c>
-      <c r="N40" s="13">
-        <v>0.35777777777777781</v>
-      </c>
-      <c r="O40" s="22" t="s">
-        <v>65</v>
+        <v>0.69586077790188916</v>
+      </c>
+      <c r="O39" s="21" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A4:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A27"/>
+    <mergeCell ref="A3:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A26"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="E48:E57">
+  <conditionalFormatting sqref="E47:E56">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -8854,7 +8462,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E27 E30:E32 E41:E47">
+  <conditionalFormatting sqref="E40:E46 E29:E31">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -8866,7 +8474,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E27 E30:E32 E41:E57">
+  <conditionalFormatting sqref="E40:E56 E29:E31">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -8878,7 +8486,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4:H27">
+  <conditionalFormatting sqref="H26">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -8890,7 +8498,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4:H27">
+  <conditionalFormatting sqref="H26">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -8902,151 +8510,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K4:K26">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K4:K26">
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N4:N26">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N4:N26">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q4:Q26">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q4:Q26">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T4:T26">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T4:T26">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W4:W26">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W4:W26">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F34:F40">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G34:G40">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O34:O40">
+  <conditionalFormatting sqref="O33:O39">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -9058,7 +8522,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P34:P40">
+  <conditionalFormatting sqref="P33:P39">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
